--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D387D4-1ACA-4DA0-939F-87E48788F86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF24ED2-3DC2-4742-8C13-62F05E79CA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="447">
   <si>
     <r>
       <rPr>
@@ -2658,6 +2658,1483 @@
   </si>
   <si>
     <t>instance</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choerodon敏捷通知-问题创建</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableAppService</t>
+  </si>
+  <si>
+    <t>disableAppService</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用服务已停用</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableAppService-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用服务已启用</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableAppService</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableAppService-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI已完成</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目群：${programName} 中, PI：${piName} 已被完成。 此PI下的冲刺 ${sprintNameList} 已被自动完成。
+如有未完成的问题，将移动到待办事项或下个冲刺中。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目：${projectName}下的应用服务：${appServiceName}已被停用。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目：${projectName}下的应用服务：${appServiceName}已被启用。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi-complete-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi-complete</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目：${projectName} 已被启用。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableProject</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableProject-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目：${projectName} 已被停用。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableProject</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableProject-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线失败</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目“${projectName}”中的流水线“${pipelineName}”执行失败。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinefailed-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinefailed</t>
+  </si>
+  <si>
+    <t>流水线成功</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目“${projectName}”中的流水线“${pipelineName}”执行成功。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinesuccess</t>
+  </si>
+  <si>
+    <t>pipelinesuccess</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织：${organizationName} 已被启用。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织：${organizationName} 已被停用。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>${jobName}状态发生变更</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>${jobName}任务已${jobStatus}，请注意查看。</t>
+  </si>
+  <si>
+    <t>jobStatusOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务实例失败</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>sagaInstanceFail</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>${userName}触发事务实例运行失败。编号:${sagaInstanceId}；所属事务:${sagaCode}；层级:${level}。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueCreate</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueAssignee</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choerodon敏捷通知-问题分配</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choerodon敏捷通知-问题已解决</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>${assigneeName} (${assigneeLoginName})创建了问题${issueNumber}，${summary}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题${issueNumbeer}，${summary}已被分配给 ${assigneeName} (${assigneeLoginName})。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题${issueNumbeer}，${summary}已被 ${assigneeName} (${assigneeLoginName})解决。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueSolve</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinesuccess-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableOrganization-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableOrganization-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusOrganization-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>sagaInstanceFail-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueCreate-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueAssignee-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueSolve-webHookOther</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEBHOOK_OTHER_ENABLED_FLAG</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEBHOOK_JSON_ENABLED_FLAG</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>org-management</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createOrganization-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建组织Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用组织Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用组织Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织任务状态通知Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"jobStatusOrganization",
+    "eventName":"组织任务状态",
+    "objectAttributes":{
+        "organizationId":1,
+        "jobName":"jobName",
+        "jobStatus":"COMPLETED",
+        "startedAt":"2020-03-12 07:06:03 UTC",
+        "finishedAt":"2020-03-12 07:06:54 UTC"
+    }
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUser</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"disableOrganization",
+    "eventName":"停用组织",
+    "objectAttributes":{
+        "organizationId":1,
+        "code":"orgCode",
+        "name":"orgName",
+        "enabled":true
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"enableOrganization",
+    "eventName":"启用组织",
+    "objectAttributes":{
+        "organizationId":1,
+        "code":"orgCode",
+        "name":"orgName",
+        "enabled":true
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"createOrganization",
+    "eventName":"创建组织",
+    "objectAttributes":{
+        "organizationId":1,
+        "name":"orgName",
+        "code":"orgCode",
+        "category":"DEFAULT"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户所有项目角色</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户所有项目角色Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteUserRoles</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用用户Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopUser</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用用户</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"stopUser",
+    "eventName":"停用用户",
+    "objectAttributes":{
+        "loginName":"user2",
+        "userName":"user2",
+        "enabled":false
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createProject</t>
+  </si>
+  <si>
+    <t>createProject</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"createProject",
+    "eventName":"创建项目",
+    "objectAttributes":{
+        "projectId":1688,
+        "name":"proName",
+        "code":"proCode",
+        "organizationId":697,
+        "enabled":true,
+        "category":"GENERAL"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用项目Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用项目Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"enableProject",
+    "eventName":"启用项目",
+    "objectAttributes":{
+        "projectId":697,
+        "enabled":true
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"disableProject",
+    "eventName":"停用项目",
+    "objectAttributes":{
+        "projectId":697,
+        "enabled":false
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectAddUser</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"addUser",
+    "eventName":"管理员添加/导入组织成员（组织层）",
+    "objectAttributes":{
+        "organizationId":1,
+        "addCount":1,
+        "userList":[
+            {
+                "loginName":"user2",
+                "userName":"user2"
+            }
+        ]
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员添加/导入成员Json（组织层）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员添加/导入成员Json（项目层</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"projectAddUser",
+    "eventName":"管理员添加/导入组织成员（项目层）",
+    "objectAttributes":{
+        "organizationId":1,
+        "addCount":1,
+        "userList":[
+            {
+                "loginName":"user2",
+                "userName":"user2"
+            }
+        ]
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"deleteUserRoles",
+    "eventName":"删除用户所有项目角色",
+    "objectAttributes":{
+        "user":{
+            "loginName":"user02",
+            "userName":"uesr02"
+        },
+        "projectId":679
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAppService</t>
+  </si>
+  <si>
+    <t>createAppService</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建应用服务</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建应用服务Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用应用服务Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"createAppService",
+    "eventName":"创建应用服务",
+    "objectAttributes":{
+        "appServerId":1,
+        "appServerCode":"appServerCode",
+        "appServerName":"appServerName",
+        "appServerType":"normal",
+        "projectId":679
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"disableAppService",
+    "eventName":"停用应用服务",
+    "objectAttributes":{
+        "appServerId":1,
+        "appServerCode":"enableAppService",
+        "appServerName":"appServerName",
+        "appServerType":"normal",
+        "projectId":679,
+        "enabled":false
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"enableAppService",
+    "eventName":"启用应用服务",
+    "objectAttributes":{
+        "appServerId":1,
+        "appServerCode":"enableAppService",
+        "appServerName":"appServerName",
+        "appServerType":"normal",
+        "projectId":679,
+        "enabled":true    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"deleteAppService",
+    "eventName":"删除应用服务",
+    "objectAttributes":{
+        "appServerId":1,
+        "appServerCode":"enableAppService",
+        "appServerName":"appServerName",
+        "appServerType":"normal",
+        "projectId":679
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除应用服务Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteAppService</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>appServiceCreationFailure</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建应用服务失败Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"appServiceCreationFailure",
+    "eventName":"创建应用服务失败",
+    "objectAttributes":{
+        "appServerId":1,
+        "appServerCode":"enableAppService",
+        "appServerName":"appServerName",
+        "appServerType":"normal",
+        "projectId":679,
+        "msg":"error info"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createEnv</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建环境</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"createEnv",
+    "eventName":"创建环境",
+    "objectAttributes":{
+        "enveId":1,
+        "envCode":"envCode",
+        "envName":"envName",
+        "clusterId":12,
+        "organizationId":1
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建环境Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableEnv</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用环境</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"enableEnv",
+    "eventName":"启用环境",
+    "objectAttributes":{
+        "enveId":1,
+        "envCode":"envCode",
+        "envName":"envName",
+        "clusterId":12,
+        "organizationId":1
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableEnv</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用环境</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用环境Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"disableEnv",
+    "eventName":"停用环境",
+    "objectAttributes":{
+        "enveId":1,
+        "envCode":"envCode",
+        "envName":"envName",
+        "clusterId":12,
+        "organizationId":1
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteEnv</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除环境</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"deleteEnv",
+    "eventName":"删除环境",
+    "objectAttributes":{
+        "enveId":1,
+        "envCode":"envCode",
+        "envName":"envName",
+        "clusterId":12,
+        "organizationId":1
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除环境Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createEnvFailed</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建环境失败</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建环境失败Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"createEnvFailed",
+    "eventName":"创建环境失败",
+    "objectAttributes":{
+        "enveId":1,
+        "envCode":"envCode",
+        "envName":"envName",
+        "clusterId":12,
+        "organizationId":1,
+        "msg":"error info"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateEnvPermissions</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境权限分配</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境权限分配Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"createEnvFailed",
+    "eventName":"创建环境失败",
+    "objectAttributes":{
+        "enveId":1,
+        "envCode":"envCode",
+        "envName":"envName",
+        "clusterId":12,
+        "organizationId":1,
+        "users":[
+            {
+                "loginName":"admin",
+                "userName":"admin",
+                "permitted":true
+            }
+        ]
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createCluster</t>
+  </si>
+  <si>
+    <t>createCluster</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建集群Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"createCluster",
+    "eventName":"创建集群",
+    "objectAttributes":{
+        "clusterId":1,
+        "clusterCode":"cluserCode",
+        "clusterName":"clusterName",
+        "organizationId":1
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活集群</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建集群</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活集群Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>activateCluster</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"activiteCluster",
+    "eventName":"激活集群",
+    "objectAttributes":{
+        "clusterId":1,
+        "clusterCode":"cluserCode",
+        "clusterName":"clusterName",
+        "organizationId":1
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteCluster</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"deleteCluster",
+    "eventName":"删除集群",
+    "objectAttributes":{
+        "clusterId":1,
+        "clusterCode":"cluserCode",
+        "clusterName":"clusterName",
+        "organizationId":1
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除集群Json</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除集群</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createClusterFailed</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建集群失败</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"createClusterFailed",
+    "eventName":"创建集群失败",
+    "objectAttributes":{
+        "clusterId":1,
+        "clusterCode":"cluserCode",
+        "clusterName":"clusterName",
+        "organizationId":1,
+        "msg":"error info"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceInstallFailed</t>
+  </si>
+  <si>
+    <t>resourceInstallFailed</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装组件失败</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"resourceInstallFailed",
+    "eventName":"组件安装失败",
+    "objectAttributes":{
+        "resourceId":1,
+        "resourceType":"cert-manager",
+        "clusterId":1,
+        "organizationId":1,
+        "msg":"error info"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitLabContinuousDeliveryFailure</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续集成流水线失败</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitLabContinuousDeliverySuccess</t>
+  </si>
+  <si>
+    <t>gitLabContinuousDeliverySuccess</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"gitLabContinuousDeliverySuccess",
+    "eventName":"持续集成流水线成功",
+    "objectAttributes":{
+        "projectId":1,
+        "projectName":"projectName",
+        "appServiceId":1,
+        "appServiceName":"appServiceName",
+        "status":"success"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"gitLabContinuousDeliveryFailure",
+    "eventName":"持续集成流水线失败",
+    "objectAttributes":{
+        "projectId":1,
+        "projectName":"projectName",
+        "appServiceId":1,
+        "appServiceName":"appServiceName",
+        "status":"failed"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续集成流水线成功</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAppServiceVersion</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成应用服务版本</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"createAppServiceVersion",
+    "eventName":"应用服务版本生成",
+    "objectAttributes":{
+        "projectid":1,
+        "projectName":"projectName",
+        "appServiceId":1,
+        "appServiceName":"appServiceName",
+        "appServiceVersionId":1,
+        "version":"0.1.0"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createResourceFailed</t>
+  </si>
+  <si>
+    <t>createResourceFailed</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建资源失败</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建资源是失败</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"createResourceFailed",
+    "eventName":"资源创建失败",
+    "objectAttributes":{
+        "resourceId":1,
+        "resourceName":"resourceName",
+        "k8sKind":"PVC",
+        "projectid":1,
+        "projectName":"projectName",
+        "envId":1,
+        "envName":"envName"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createResource</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建资源</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind": "createResource",
+    "eventName":"资源创建",
+    "objectAttributes": {
+        "resourceId": 1,
+        "resourceName": "resourceName",
+        "k8sKind": "PVC",
+        "projectid":1,
+        "projectName":"projectName",
+        "envId": 1,
+        "envName": "envName"
+    },
+    "user": {
+        "loginName": "admin",
+        "userName": "admin"
+    },
+    "createdAt": "2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind": "deleteResource",
+    "eventName":"资源删除",
+    "objectAttributes": {
+        "resourceId": 1,
+        "resourceName": "resourceName",
+        "k8sKind": "PVC",
+        "projectid":1,
+        "projectName":"projectName",
+        "envId": 1,
+        "envName": "envName"
+    },
+    "user": {
+        "loginName": "admin",
+        "userName": "admin"
+    },
+    "createdAt": "2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteResource</t>
+  </si>
+  <si>
+    <t>deleteResource</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除资源</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"pipelinesuccess",
+    "eventName":"流水线执行成功",
+    "objectAttributes":{
+        "pipelineId":1,
+        "pipelineName":"pipelineName",
+        "triggerType":"auto",
+        "projectId":1,
+        "projectName":"projectName"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线执行成功</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinefailed</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线执行失败</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"pipelinefailed",
+    "eventName":"流水线执行失败",
+    "objectAttributes":{
+        "pipelineId":1,
+        "pipelineName":"pipelineName",
+        "triggerType":"auto",
+        "projectId":1,
+        "projectName":"projectName"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinepass</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinestop</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线或签审核通过</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线被终止</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"pipelinepass",
+    "eventName":"流水线或签任务通过",
+    "objectAttributes":{
+        "pipelineId":1,
+        "pipelineName":"pipelineName",
+        "projectId":1,
+        "projectName":"项目名称",
+        "triggerType":"auto",
+        "stageId":1,
+        "stageName":"stageName"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"pipelinestop",
+    "eventName":"流水线被终止",
+    "objectAttributes":{
+        "pipelineId":1,
+        "pipelineName":"pipelineName",
+        "projectId":1,
+        "projectName":"项目名称",
+        "triggerType":"auto",
+        "stageId":1,
+        "stageName":"stageName"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableOrganization-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableOrganization-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusOrganization-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUser-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopUser-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createProject-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableProject-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableProject-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectAddUser-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteUserRoles-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAppService-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableAppService-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createEnv-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableEnv-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableEnv-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteEnv-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createEnvFailed-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateEnvPermissions-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createCluster-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>activateCluster-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteCluster-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createClusterFailed-webHookJson</t>
+  </si>
+  <si>
+    <t>resourceInstallFailed-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitLabContinuousDeliveryFailure-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitLabContinuousDeliverySuccess-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createResourceFailed-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createResource-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteResource-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinesuccess-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinefailed-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinepass-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinestop-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro-management</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>env-notice</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建、删除、停用环境通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster-notice</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建、删除、激活集群通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件安装失败</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>code-management-notice</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -3386,14 +4863,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.625" customWidth="1"/>
+    <col min="3" max="3" width="100.6328125" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
+    <row r="1" spans="1:8" ht="63.9" customHeight="1">
       <c r="A1" s="6"/>
       <c r="C1" s="34" t="s">
         <v>0</v>
@@ -3409,7 +4886,7 @@
       <c r="D2"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+    <row r="3" spans="1:8" ht="48.9" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="33" t="s">
         <v>1</v>
@@ -3421,7 +4898,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5">
+    <row r="4" spans="1:8" ht="31.2">
       <c r="A4"/>
       <c r="C4" s="36" t="s">
         <v>3</v>
@@ -3467,7 +4944,7 @@
       </c>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:8" ht="173.25">
+    <row r="9" spans="1:8" ht="156">
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -3481,7 +4958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
+    <row r="10" spans="1:8" ht="202.8">
       <c r="C10" s="22" t="s">
         <v>17</v>
       </c>
@@ -3503,7 +4980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
+    <row r="12" spans="1:8" ht="46.8">
       <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
@@ -3524,7 +5001,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:8" ht="132.75">
+    <row r="15" spans="1:8" ht="126.6">
       <c r="C15" s="24" t="s">
         <v>26</v>
       </c>
@@ -3607,7 +5084,7 @@
       </c>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" spans="3:5" ht="31.5">
+    <row r="27" spans="3:5" ht="31.2">
       <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
@@ -3630,30 +5107,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:R20"/>
+  <dimension ref="D7:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="K3" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="39.875" customWidth="1"/>
-    <col min="7" max="7" width="36.375" customWidth="1"/>
-    <col min="8" max="8" width="32.75" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="37.90625" customWidth="1"/>
+    <col min="6" max="6" width="39.90625" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" customWidth="1"/>
+    <col min="8" max="8" width="32.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="20.36328125" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="14" max="14" width="18.625" customWidth="1"/>
-    <col min="15" max="15" width="24.5" customWidth="1"/>
-    <col min="16" max="16" width="27.375" customWidth="1"/>
-    <col min="17" max="17" width="20.875" customWidth="1"/>
+    <col min="13" max="13" width="36.81640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6328125" customWidth="1"/>
+    <col min="15" max="15" width="24.453125" customWidth="1"/>
+    <col min="16" max="16" width="27.36328125" customWidth="1"/>
+    <col min="17" max="17" width="20.90625" customWidth="1"/>
+    <col min="18" max="18" width="33.54296875" customWidth="1"/>
+    <col min="19" max="19" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:20">
       <c r="D7" t="s">
         <v>44</v>
       </c>
@@ -3697,10 +5177,16 @@
         <v>57</v>
       </c>
       <c r="R7" t="s">
+        <v>277</v>
+      </c>
+      <c r="S7" t="s">
+        <v>278</v>
+      </c>
+      <c r="T7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:20">
       <c r="E8" t="s">
         <v>59</v>
       </c>
@@ -3741,10 +5227,16 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:18">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:20">
       <c r="E9" t="s">
         <v>64</v>
       </c>
@@ -3785,10 +5277,16 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:18">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:20">
       <c r="E10" t="s">
         <v>67</v>
       </c>
@@ -3831,8 +5329,14 @@
       <c r="R10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="4:18">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:20">
       <c r="E11" t="s">
         <v>72</v>
       </c>
@@ -3873,10 +5377,16 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:18">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:20">
       <c r="E12" t="s">
         <v>76</v>
       </c>
@@ -3917,10 +5427,16 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:18">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:20">
       <c r="E13" t="s">
         <v>79</v>
       </c>
@@ -3934,7 +5450,7 @@
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3949,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3961,10 +5477,16 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:20">
       <c r="E14" t="s">
         <v>84</v>
       </c>
@@ -3978,7 +5500,7 @@
         <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3993,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -4007,8 +5529,14 @@
       <c r="R14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="4:18">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:20">
       <c r="E15" t="s">
         <v>87</v>
       </c>
@@ -4051,8 +5579,14 @@
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="4:18">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:20">
       <c r="E16" t="s">
         <v>90</v>
       </c>
@@ -4095,8 +5629,14 @@
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="5:18">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20">
       <c r="E17" t="s">
         <v>92</v>
       </c>
@@ -4139,8 +5679,14 @@
       <c r="R17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="5:18">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20">
       <c r="E18" t="s">
         <v>95</v>
       </c>
@@ -4183,8 +5729,14 @@
       <c r="R18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="5:18">
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20">
       <c r="E19" t="s">
         <v>99</v>
       </c>
@@ -4225,10 +5777,16 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="5:18">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20">
       <c r="E20" t="s">
         <v>102</v>
       </c>
@@ -4242,7 +5800,7 @@
         <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4269,11 +5827,1017 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:20">
+      <c r="E21" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" t="s">
+        <v>275</v>
+      </c>
+      <c r="I21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>279</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:20">
+      <c r="E22" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" t="s">
+        <v>293</v>
+      </c>
+      <c r="I22" t="s">
+        <v>296</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>438</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" ht="14.4" customHeight="1">
+      <c r="E23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" t="s">
+        <v>299</v>
+      </c>
+      <c r="I23" t="s">
+        <v>276</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>279</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20">
+      <c r="E24" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G24" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" t="s">
+        <v>303</v>
+      </c>
+      <c r="I24" t="s">
+        <v>296</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>438</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20">
+      <c r="E25" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25" t="s">
+        <v>317</v>
+      </c>
+      <c r="G25" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" t="s">
+        <v>318</v>
+      </c>
+      <c r="I25" t="s">
+        <v>296</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>104</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20">
+      <c r="E26" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" t="s">
+        <v>330</v>
+      </c>
+      <c r="G26" t="s">
+        <v>331</v>
+      </c>
+      <c r="H26" t="s">
+        <v>331</v>
+      </c>
+      <c r="I26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>439</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20">
+      <c r="E27" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" t="s">
+        <v>334</v>
+      </c>
+      <c r="G27" t="s">
+        <v>335</v>
+      </c>
+      <c r="H27" t="s">
+        <v>335</v>
+      </c>
+      <c r="I27" t="s">
+        <v>296</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>439</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:20">
+      <c r="E28" t="s">
+        <v>337</v>
+      </c>
+      <c r="F28" t="s">
+        <v>337</v>
+      </c>
+      <c r="G28" t="s">
+        <v>338</v>
+      </c>
+      <c r="H28" t="s">
+        <v>338</v>
+      </c>
+      <c r="I28" t="s">
+        <v>296</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>439</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:20">
+      <c r="E29" t="s">
+        <v>341</v>
+      </c>
+      <c r="F29" t="s">
+        <v>341</v>
+      </c>
+      <c r="G29" t="s">
+        <v>342</v>
+      </c>
+      <c r="H29" t="s">
+        <v>342</v>
+      </c>
+      <c r="I29" t="s">
+        <v>296</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>439</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:20">
+      <c r="E30" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30" t="s">
+        <v>345</v>
+      </c>
+      <c r="G30" t="s">
+        <v>346</v>
+      </c>
+      <c r="H30" t="s">
+        <v>346</v>
+      </c>
+      <c r="I30" t="s">
+        <v>296</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>439</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:20">
+      <c r="E31" t="s">
+        <v>349</v>
+      </c>
+      <c r="F31" t="s">
+        <v>349</v>
+      </c>
+      <c r="G31" t="s">
+        <v>350</v>
+      </c>
+      <c r="H31" t="s">
+        <v>350</v>
+      </c>
+      <c r="I31" t="s">
+        <v>296</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>439</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:20">
+      <c r="E32" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" t="s">
+        <v>354</v>
+      </c>
+      <c r="G32" t="s">
+        <v>358</v>
+      </c>
+      <c r="H32" t="s">
+        <v>358</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>442</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:20">
+      <c r="E33" t="s">
+        <v>360</v>
+      </c>
+      <c r="F33" t="s">
+        <v>360</v>
+      </c>
+      <c r="G33" t="s">
+        <v>357</v>
+      </c>
+      <c r="H33" t="s">
+        <v>357</v>
+      </c>
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>442</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:20">
+      <c r="E34" t="s">
+        <v>362</v>
+      </c>
+      <c r="F34" t="s">
+        <v>362</v>
+      </c>
+      <c r="G34" t="s">
+        <v>365</v>
+      </c>
+      <c r="H34" t="s">
+        <v>365</v>
+      </c>
+      <c r="I34" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>442</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:20">
+      <c r="E35" t="s">
+        <v>366</v>
+      </c>
+      <c r="F35" t="s">
+        <v>366</v>
+      </c>
+      <c r="G35" t="s">
+        <v>367</v>
+      </c>
+      <c r="H35" t="s">
+        <v>367</v>
+      </c>
+      <c r="I35" t="s">
+        <v>296</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>442</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:20">
+      <c r="E36" t="s">
+        <v>370</v>
+      </c>
+      <c r="F36" t="s">
+        <v>369</v>
+      </c>
+      <c r="G36" t="s">
+        <v>445</v>
+      </c>
+      <c r="H36" t="s">
+        <v>445</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>442</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:20">
+      <c r="E37" t="s">
+        <v>376</v>
+      </c>
+      <c r="F37" t="s">
+        <v>376</v>
+      </c>
+      <c r="G37" t="s">
+        <v>379</v>
+      </c>
+      <c r="H37" t="s">
+        <v>379</v>
+      </c>
+      <c r="I37" t="s">
+        <v>296</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>446</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:20">
+      <c r="E38" t="s">
+        <v>384</v>
+      </c>
+      <c r="F38" t="s">
+        <v>384</v>
+      </c>
+      <c r="G38" t="s">
+        <v>385</v>
+      </c>
+      <c r="H38" t="s">
+        <v>385</v>
+      </c>
+      <c r="I38" t="s">
+        <v>296</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>71</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:20">
+      <c r="E39" t="s">
+        <v>388</v>
+      </c>
+      <c r="F39" t="s">
+        <v>388</v>
+      </c>
+      <c r="G39" t="s">
+        <v>389</v>
+      </c>
+      <c r="H39" t="s">
+        <v>389</v>
+      </c>
+      <c r="I39" t="s">
+        <v>296</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>71</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:20">
+      <c r="E40" t="s">
+        <v>393</v>
+      </c>
+      <c r="F40" t="s">
+        <v>392</v>
+      </c>
+      <c r="G40" t="s">
+        <v>394</v>
+      </c>
+      <c r="H40" t="s">
+        <v>394</v>
+      </c>
+      <c r="I40" t="s">
+        <v>296</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>71</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D8:N19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D8:N19">
     <sortCondition descending="1" ref="N8"/>
   </sortState>
   <phoneticPr fontId="17" type="noConversion"/>
@@ -4284,21 +6848,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:N22"/>
+  <dimension ref="D7:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="30.875" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
-    <col min="10" max="10" width="69.5" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="22.90625" customWidth="1"/>
+    <col min="8" max="8" width="30.90625" customWidth="1"/>
+    <col min="9" max="9" width="28.6328125" customWidth="1"/>
+    <col min="10" max="10" width="101.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4523,7 +7087,7 @@
         <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="5:10">
@@ -4566,7 +7130,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="5:10" ht="47.25">
+    <row r="20" spans="5:10" ht="31.2">
       <c r="E20" t="s">
         <v>145</v>
       </c>
@@ -4626,27 +7190,1047 @@
         <v>152</v>
       </c>
     </row>
+    <row r="23" spans="5:10">
+      <c r="E23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10">
+      <c r="E24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>224</v>
+      </c>
+      <c r="I24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" ht="31.2">
+      <c r="E25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10">
+      <c r="E26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>233</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10">
+      <c r="E27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10">
+      <c r="E28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>243</v>
+      </c>
+      <c r="I28" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10">
+      <c r="E29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>247</v>
+      </c>
+      <c r="I29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10">
+      <c r="E30" t="s">
+        <v>268</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>249</v>
+      </c>
+      <c r="I30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10">
+      <c r="E31" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10">
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10">
+      <c r="E33" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>257</v>
+      </c>
+      <c r="I33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10">
+      <c r="E34" t="s">
+        <v>272</v>
+      </c>
+      <c r="F34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>259</v>
+      </c>
+      <c r="I34" t="s">
+        <v>217</v>
+      </c>
+      <c r="J34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10">
+      <c r="E35" t="s">
+        <v>273</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>260</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10">
+      <c r="E36" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>266</v>
+      </c>
+      <c r="I36" t="s">
+        <v>262</v>
+      </c>
+      <c r="J36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" ht="234">
+      <c r="E37" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>280</v>
+      </c>
+      <c r="I37" t="s">
+        <v>283</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" ht="234">
+      <c r="E38" t="s">
+        <v>406</v>
+      </c>
+      <c r="F38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>249</v>
+      </c>
+      <c r="I38" t="s">
+        <v>284</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" ht="234">
+      <c r="E39" t="s">
+        <v>407</v>
+      </c>
+      <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>285</v>
+      </c>
+      <c r="I39" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" ht="171.6">
+      <c r="E40" t="s">
+        <v>408</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>255</v>
+      </c>
+      <c r="I40" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" ht="296.39999999999998">
+      <c r="E41" t="s">
+        <v>409</v>
+      </c>
+      <c r="F41" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>289</v>
+      </c>
+      <c r="I41" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" ht="218.4">
+      <c r="E42" t="s">
+        <v>410</v>
+      </c>
+      <c r="F42" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>298</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10" ht="265.2">
+      <c r="E43" t="s">
+        <v>411</v>
+      </c>
+      <c r="F43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>302</v>
+      </c>
+      <c r="I43" t="s">
+        <v>304</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" ht="202.8">
+      <c r="E44" t="s">
+        <v>412</v>
+      </c>
+      <c r="F44" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>233</v>
+      </c>
+      <c r="I44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10" ht="202.8">
+      <c r="E45" t="s">
+        <v>413</v>
+      </c>
+      <c r="F45" t="s">
+        <v>282</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I45" t="s">
+        <v>307</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" ht="296.39999999999998">
+      <c r="E46" t="s">
+        <v>414</v>
+      </c>
+      <c r="F46" t="s">
+        <v>282</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>310</v>
+      </c>
+      <c r="I46" t="s">
+        <v>313</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" ht="249.6">
+      <c r="E47" t="s">
+        <v>415</v>
+      </c>
+      <c r="F47" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>295</v>
+      </c>
+      <c r="I47" t="s">
+        <v>294</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="5:10" ht="249.6">
+      <c r="E48" t="s">
+        <v>416</v>
+      </c>
+      <c r="F48" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>316</v>
+      </c>
+      <c r="I48" t="s">
+        <v>319</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" ht="249.6">
+      <c r="E49" t="s">
+        <v>417</v>
+      </c>
+      <c r="F49" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" t="s">
+        <v>320</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" ht="265.2">
+      <c r="E50" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" t="s">
+        <v>282</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>219</v>
+      </c>
+      <c r="I50" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" ht="249.6">
+      <c r="E51" t="s">
+        <v>326</v>
+      </c>
+      <c r="F51" t="s">
+        <v>282</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>326</v>
+      </c>
+      <c r="I51" t="s">
+        <v>325</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" ht="265.2">
+      <c r="E52" t="s">
+        <v>327</v>
+      </c>
+      <c r="F52" t="s">
+        <v>282</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>327</v>
+      </c>
+      <c r="I52" t="s">
+        <v>328</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" ht="249.6">
+      <c r="E53" t="s">
+        <v>418</v>
+      </c>
+      <c r="F53" t="s">
+        <v>282</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>330</v>
+      </c>
+      <c r="I53" t="s">
+        <v>333</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" ht="249.6">
+      <c r="E54" t="s">
+        <v>419</v>
+      </c>
+      <c r="F54" t="s">
+        <v>282</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>334</v>
+      </c>
+      <c r="I54" t="s">
+        <v>335</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" ht="249.6">
+      <c r="E55" t="s">
+        <v>420</v>
+      </c>
+      <c r="F55" t="s">
+        <v>282</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>337</v>
+      </c>
+      <c r="I55" t="s">
+        <v>339</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" ht="249.6">
+      <c r="E56" t="s">
+        <v>421</v>
+      </c>
+      <c r="F56" t="s">
+        <v>282</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>341</v>
+      </c>
+      <c r="I56" t="s">
+        <v>344</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" ht="265.2">
+      <c r="E57" t="s">
+        <v>422</v>
+      </c>
+      <c r="F57" t="s">
+        <v>282</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>345</v>
+      </c>
+      <c r="I57" t="s">
+        <v>347</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" ht="358.8">
+      <c r="E58" t="s">
+        <v>423</v>
+      </c>
+      <c r="F58" t="s">
+        <v>282</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>349</v>
+      </c>
+      <c r="I58" t="s">
+        <v>351</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" ht="234">
+      <c r="E59" t="s">
+        <v>424</v>
+      </c>
+      <c r="F59" t="s">
+        <v>282</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>353</v>
+      </c>
+      <c r="I59" t="s">
+        <v>355</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" ht="234">
+      <c r="E60" t="s">
+        <v>425</v>
+      </c>
+      <c r="F60" t="s">
+        <v>282</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>360</v>
+      </c>
+      <c r="I60" t="s">
+        <v>359</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10" ht="234">
+      <c r="E61" t="s">
+        <v>426</v>
+      </c>
+      <c r="F61" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>362</v>
+      </c>
+      <c r="I61" t="s">
+        <v>364</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10" ht="249.6">
+      <c r="E62" t="s">
+        <v>427</v>
+      </c>
+      <c r="F62" t="s">
+        <v>282</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>366</v>
+      </c>
+      <c r="I62" t="s">
+        <v>367</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" ht="249.6">
+      <c r="E63" t="s">
+        <v>428</v>
+      </c>
+      <c r="F63" t="s">
+        <v>282</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>370</v>
+      </c>
+      <c r="I63" t="s">
+        <v>371</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" ht="249.6">
+      <c r="E64" t="s">
+        <v>429</v>
+      </c>
+      <c r="F64" t="s">
+        <v>282</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>373</v>
+      </c>
+      <c r="I64" t="s">
+        <v>374</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" ht="249.6">
+      <c r="E65" t="s">
+        <v>430</v>
+      </c>
+      <c r="F65" t="s">
+        <v>282</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>375</v>
+      </c>
+      <c r="I65" t="s">
+        <v>379</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" ht="265.2">
+      <c r="E66" t="s">
+        <v>380</v>
+      </c>
+      <c r="F66" t="s">
+        <v>282</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>380</v>
+      </c>
+      <c r="I66" t="s">
+        <v>381</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" ht="280.8">
+      <c r="E67" t="s">
+        <v>431</v>
+      </c>
+      <c r="F67" t="s">
+        <v>282</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>383</v>
+      </c>
+      <c r="I67" t="s">
+        <v>386</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10" ht="280.8">
+      <c r="E68" t="s">
+        <v>432</v>
+      </c>
+      <c r="F68" t="s">
+        <v>282</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>388</v>
+      </c>
+      <c r="I68" t="s">
+        <v>389</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10" ht="280.8">
+      <c r="E69" t="s">
+        <v>433</v>
+      </c>
+      <c r="F69" t="s">
+        <v>282</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>393</v>
+      </c>
+      <c r="I69" t="s">
+        <v>394</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" ht="249.6">
+      <c r="E70" t="s">
+        <v>434</v>
+      </c>
+      <c r="F70" t="s">
+        <v>282</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>246</v>
+      </c>
+      <c r="I70" t="s">
+        <v>396</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10" ht="249.6">
+      <c r="E71" t="s">
+        <v>435</v>
+      </c>
+      <c r="F71" t="s">
+        <v>282</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>397</v>
+      </c>
+      <c r="I71" t="s">
+        <v>398</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10" ht="280.8">
+      <c r="E72" t="s">
+        <v>436</v>
+      </c>
+      <c r="F72" t="s">
+        <v>282</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>400</v>
+      </c>
+      <c r="I72" t="s">
+        <v>402</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10" ht="280.8">
+      <c r="E73" t="s">
+        <v>437</v>
+      </c>
+      <c r="F73" t="s">
+        <v>282</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>401</v>
+      </c>
+      <c r="I73" t="s">
+        <v>403</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:H20"/>
+  <dimension ref="D7:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
     <col min="8" max="8" width="73" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4847,6 +8431,34 @@
       </c>
       <c r="H20" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" t="s">
+        <v>439</v>
+      </c>
+      <c r="F21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G21" t="s">
+        <v>440</v>
+      </c>
+      <c r="H21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" t="s">
+        <v>442</v>
+      </c>
+      <c r="F22" t="s">
+        <v>442</v>
+      </c>
+      <c r="G22" t="s">
+        <v>443</v>
+      </c>
+      <c r="H22" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -4860,21 +8472,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:M13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="1" customWidth="1"/>
     <col min="6" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5096,16 +8708,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE81157-F4D0-4509-98E1-B49876CCC686}">
   <dimension ref="D7:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="50.25" style="32" customWidth="1"/>
-    <col min="9" max="10" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="50.26953125" style="32" customWidth="1"/>
+    <col min="9" max="10" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF24ED2-3DC2-4742-8C13-62F05E79CA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F09055-7DF6-40AA-9BC5-D5DEAA1F68DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2960,10 +2960,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>addUser</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "objectKind":"disableOrganization",
     "eventName":"停用组织",
@@ -3139,32 +3135,6 @@
   </si>
   <si>
     <t>projectAddUser</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "objectKind":"addUser",
-    "eventName":"管理员添加/导入组织成员（组织层）",
-    "objectAttributes":{
-        "organizationId":1,
-        "addCount":1,
-        "userList":[
-            {
-                "loginName":"user2",
-                "userName":"user2"
-            }
-        ]
-    },
-    "user":{
-        "loginName":"admin",
-        "userName":"admin"
-    },
-    "createdAt":"2020-03-12 06:13:50 UTC"
-}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员添加/导入成员Json（组织层）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -3987,10 +3957,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>addUser-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>stopUser-webHookJson</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -4135,6 +4101,40 @@
   </si>
   <si>
     <t>code-management-notice</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addMember-webHookJson</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addMember</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"addMember",
+    "eventName":"管理员添加成员（组织层）",
+    "objectAttributes":{
+        "organizationId":1,
+        "addCount":1,
+        "userList":[
+            {
+                "loginName":"user2",
+                "userName":"user2"
+            }
+        ]
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员添加成员Json（组织层）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -5109,8 +5109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:T40"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -5227,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -5477,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -5527,10 +5527,10 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -5577,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -5627,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -5800,7 +5800,7 @@
         <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -5888,20 +5888,20 @@
     </row>
     <row r="22" spans="5:20">
       <c r="E22" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" t="s">
+        <v>292</v>
+      </c>
+      <c r="I22" t="s">
         <v>295</v>
       </c>
-      <c r="F22" t="s">
-        <v>295</v>
-      </c>
-      <c r="G22" t="s">
-        <v>293</v>
-      </c>
-      <c r="H22" t="s">
-        <v>293</v>
-      </c>
-      <c r="I22" t="s">
-        <v>296</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -5938,16 +5938,16 @@
     </row>
     <row r="23" spans="5:20" ht="14.4" customHeight="1">
       <c r="E23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" t="s">
+        <v>297</v>
+      </c>
+      <c r="G23" t="s">
         <v>298</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>298</v>
-      </c>
-      <c r="G23" t="s">
-        <v>299</v>
-      </c>
-      <c r="H23" t="s">
-        <v>299</v>
       </c>
       <c r="I23" t="s">
         <v>276</v>
@@ -5988,19 +5988,19 @@
     </row>
     <row r="24" spans="5:20">
       <c r="E24" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" t="s">
         <v>301</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>302</v>
       </c>
-      <c r="G24" t="s">
-        <v>303</v>
-      </c>
       <c r="H24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -6038,19 +6038,19 @@
     </row>
     <row r="25" spans="5:20">
       <c r="E25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -6088,19 +6088,19 @@
     </row>
     <row r="26" spans="5:20">
       <c r="E26" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F26" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -6138,19 +6138,19 @@
     </row>
     <row r="27" spans="5:20">
       <c r="E27" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F27" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G27" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H27" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -6188,19 +6188,19 @@
     </row>
     <row r="28" spans="5:20">
       <c r="E28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -6238,19 +6238,19 @@
     </row>
     <row r="29" spans="5:20">
       <c r="E29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -6288,19 +6288,19 @@
     </row>
     <row r="30" spans="5:20">
       <c r="E30" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F30" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -6338,19 +6338,19 @@
     </row>
     <row r="31" spans="5:20">
       <c r="E31" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F31" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G31" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H31" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -6388,19 +6388,19 @@
     </row>
     <row r="32" spans="5:20">
       <c r="E32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G32" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H32" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -6438,19 +6438,19 @@
     </row>
     <row r="33" spans="5:20">
       <c r="E33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G33" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H33" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -6488,19 +6488,19 @@
     </row>
     <row r="34" spans="5:20">
       <c r="E34" t="s">
+        <v>359</v>
+      </c>
+      <c r="F34" t="s">
+        <v>359</v>
+      </c>
+      <c r="G34" t="s">
         <v>362</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>362</v>
       </c>
-      <c r="G34" t="s">
-        <v>365</v>
-      </c>
-      <c r="H34" t="s">
-        <v>365</v>
-      </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -6515,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -6538,19 +6538,19 @@
     </row>
     <row r="35" spans="5:20">
       <c r="E35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G35" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H35" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -6588,19 +6588,19 @@
     </row>
     <row r="36" spans="5:20">
       <c r="E36" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F36" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G36" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H36" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -6638,19 +6638,19 @@
     </row>
     <row r="37" spans="5:20">
       <c r="E37" t="s">
+        <v>373</v>
+      </c>
+      <c r="F37" t="s">
+        <v>373</v>
+      </c>
+      <c r="G37" t="s">
         <v>376</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>376</v>
       </c>
-      <c r="G37" t="s">
-        <v>379</v>
-      </c>
-      <c r="H37" t="s">
-        <v>379</v>
-      </c>
       <c r="I37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -6688,19 +6688,19 @@
     </row>
     <row r="38" spans="5:20">
       <c r="E38" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F38" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G38" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H38" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -6738,19 +6738,19 @@
     </row>
     <row r="39" spans="5:20">
       <c r="E39" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F39" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -6788,19 +6788,19 @@
     </row>
     <row r="40" spans="5:20">
       <c r="E40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -6850,8 +6850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
@@ -7487,12 +7487,12 @@
         <v>283</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="5:10" ht="234">
       <c r="E38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F38" t="s">
         <v>282</v>
@@ -7507,12 +7507,12 @@
         <v>284</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="5:10" ht="234">
       <c r="E39" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F39" t="s">
         <v>282</v>
@@ -7527,12 +7527,12 @@
         <v>286</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="5:10" ht="171.6">
       <c r="E40" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F40" t="s">
         <v>282</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="41" spans="5:10" ht="296.39999999999998">
       <c r="E41" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="F41" t="s">
         <v>282</v>
@@ -7561,18 +7561,18 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="I41" t="s">
-        <v>312</v>
+        <v>446</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>311</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="5:10" ht="218.4">
       <c r="E42" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F42" t="s">
         <v>282</v>
@@ -7581,18 +7581,18 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="5:10" ht="265.2">
       <c r="E43" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F43" t="s">
         <v>282</v>
@@ -7601,18 +7601,18 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I43" t="s">
+        <v>303</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="44" spans="5:10" ht="202.8">
       <c r="E44" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F44" t="s">
         <v>282</v>
@@ -7624,15 +7624,15 @@
         <v>233</v>
       </c>
       <c r="I44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="5:10" ht="202.8">
       <c r="E45" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F45" t="s">
         <v>282</v>
@@ -7644,15 +7644,15 @@
         <v>238</v>
       </c>
       <c r="I45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="5:10" ht="296.39999999999998">
       <c r="E46" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F46" t="s">
         <v>282</v>
@@ -7661,18 +7661,18 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
+        <v>309</v>
+      </c>
+      <c r="I46" t="s">
         <v>310</v>
       </c>
-      <c r="I46" t="s">
-        <v>313</v>
-      </c>
       <c r="J46" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="5:10" ht="249.6">
       <c r="E47" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F47" t="s">
         <v>282</v>
@@ -7681,18 +7681,18 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="5:10" ht="249.6">
       <c r="E48" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F48" t="s">
         <v>282</v>
@@ -7701,18 +7701,18 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
+        <v>313</v>
+      </c>
+      <c r="I48" t="s">
         <v>316</v>
       </c>
-      <c r="I48" t="s">
-        <v>319</v>
-      </c>
       <c r="J48" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="5:10" ht="249.6">
       <c r="E49" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F49" t="s">
         <v>282</v>
@@ -7724,10 +7724,10 @@
         <v>224</v>
       </c>
       <c r="I49" t="s">
+        <v>317</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="50" spans="5:10" ht="265.2">
@@ -7744,15 +7744,15 @@
         <v>219</v>
       </c>
       <c r="I50" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="5:10" ht="249.6">
       <c r="E51" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F51" t="s">
         <v>282</v>
@@ -7761,18 +7761,18 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I51" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="5:10" ht="265.2">
       <c r="E52" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F52" t="s">
         <v>282</v>
@@ -7781,18 +7781,18 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I52" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="5:10" ht="249.6">
       <c r="E53" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F53" t="s">
         <v>282</v>
@@ -7801,18 +7801,18 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
+        <v>327</v>
+      </c>
+      <c r="I53" t="s">
         <v>330</v>
       </c>
-      <c r="I53" t="s">
-        <v>333</v>
-      </c>
       <c r="J53" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="5:10" ht="249.6">
       <c r="E54" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F54" t="s">
         <v>282</v>
@@ -7821,18 +7821,18 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I54" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="5:10" ht="249.6">
       <c r="E55" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F55" t="s">
         <v>282</v>
@@ -7841,18 +7841,18 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
+        <v>334</v>
+      </c>
+      <c r="I55" t="s">
+        <v>336</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="I55" t="s">
-        <v>339</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="56" spans="5:10" ht="249.6">
       <c r="E56" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F56" t="s">
         <v>282</v>
@@ -7861,18 +7861,18 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
+        <v>338</v>
+      </c>
+      <c r="I56" t="s">
         <v>341</v>
       </c>
-      <c r="I56" t="s">
-        <v>344</v>
-      </c>
       <c r="J56" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="5:10" ht="265.2">
       <c r="E57" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F57" t="s">
         <v>282</v>
@@ -7881,18 +7881,18 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
+        <v>342</v>
+      </c>
+      <c r="I57" t="s">
+        <v>344</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="I57" t="s">
-        <v>347</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="58" spans="5:10" ht="358.8">
       <c r="E58" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F58" t="s">
         <v>282</v>
@@ -7901,18 +7901,18 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
+        <v>346</v>
+      </c>
+      <c r="I58" t="s">
+        <v>348</v>
+      </c>
+      <c r="J58" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="I58" t="s">
-        <v>351</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="59" spans="5:10" ht="234">
       <c r="E59" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F59" t="s">
         <v>282</v>
@@ -7921,18 +7921,18 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
+        <v>350</v>
+      </c>
+      <c r="I59" t="s">
+        <v>352</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="I59" t="s">
-        <v>355</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="60" spans="5:10" ht="234">
       <c r="E60" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -7941,18 +7941,18 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I60" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="5:10" ht="234">
       <c r="E61" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F61" t="s">
         <v>282</v>
@@ -7961,18 +7961,18 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I61" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="5:10" ht="249.6">
       <c r="E62" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F62" t="s">
         <v>282</v>
@@ -7981,18 +7981,18 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I62" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="5:10" ht="249.6">
       <c r="E63" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F63" t="s">
         <v>282</v>
@@ -8001,18 +8001,18 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I63" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" spans="5:10" ht="249.6">
       <c r="E64" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F64" t="s">
         <v>282</v>
@@ -8021,18 +8021,18 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I64" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="5:10" ht="249.6">
       <c r="E65" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F65" t="s">
         <v>282</v>
@@ -8041,18 +8041,18 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I65" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="5:10" ht="265.2">
       <c r="E66" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F66" t="s">
         <v>282</v>
@@ -8061,18 +8061,18 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I66" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="5:10" ht="280.8">
       <c r="E67" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F67" t="s">
         <v>282</v>
@@ -8081,18 +8081,18 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
+        <v>380</v>
+      </c>
+      <c r="I67" t="s">
         <v>383</v>
       </c>
-      <c r="I67" t="s">
-        <v>386</v>
-      </c>
       <c r="J67" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="5:10" ht="280.8">
       <c r="E68" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F68" t="s">
         <v>282</v>
@@ -8101,18 +8101,18 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I68" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="5:10" ht="280.8">
       <c r="E69" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F69" t="s">
         <v>282</v>
@@ -8121,18 +8121,18 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I69" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="5:10" ht="249.6">
       <c r="E70" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F70" t="s">
         <v>282</v>
@@ -8144,15 +8144,15 @@
         <v>246</v>
       </c>
       <c r="I70" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="5:10" ht="249.6">
       <c r="E71" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F71" t="s">
         <v>282</v>
@@ -8161,18 +8161,18 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I71" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="5:10" ht="280.8">
       <c r="E72" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F72" t="s">
         <v>282</v>
@@ -8181,18 +8181,18 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I72" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="5:10" ht="280.8">
       <c r="E73" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F73" t="s">
         <v>282</v>
@@ -8201,13 +8201,13 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I73" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -8435,30 +8435,30 @@
     </row>
     <row r="21" spans="5:8">
       <c r="E21" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F21" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G21" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H21" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F22" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -8472,7 +8472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F09055-7DF6-40AA-9BC5-D5DEAA1F68DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19890" windowHeight="7740" tabRatio="452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,27 +18,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="418">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -62,7 +48,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -74,7 +60,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -92,7 +78,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -110,7 +96,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -128,7 +114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -138,7 +124,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -156,7 +142,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -175,7 +161,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -193,7 +179,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -204,7 +190,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -222,7 +208,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -240,7 +226,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -261,7 +247,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -281,7 +267,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -301,7 +287,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -321,7 +307,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -341,7 +327,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -352,7 +338,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -370,7 +356,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -381,7 +367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -399,7 +385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -417,7 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -435,7 +421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -453,7 +439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -500,7 +486,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -518,7 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -536,7 +522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -554,7 +540,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -565,7 +551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -583,7 +569,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -601,7 +587,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -620,7 +606,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -638,7 +624,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -657,7 +643,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -675,7 +661,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -686,7 +672,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -704,7 +690,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -722,7 +708,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -745,7 +731,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -763,7 +749,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -781,7 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -799,7 +785,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -817,7 +803,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -828,7 +814,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -846,7 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -856,7 +842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -876,7 +862,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -886,7 +872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当</t>
     </r>
@@ -904,7 +890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -922,7 +908,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -945,7 +931,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -963,7 +949,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -982,7 +968,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -1001,7 +987,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1020,7 +1006,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1040,7 +1026,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1059,7 +1045,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1093,7 +1079,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1113,7 +1099,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1124,7 +1110,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1142,7 +1128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1162,7 +1148,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1181,7 +1166,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1194,7 +1178,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1213,7 +1196,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1232,7 +1214,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1251,7 +1232,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1266,7 +1246,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1284,7 +1264,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1302,7 +1282,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1320,7 +1300,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1338,7 +1318,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1353,7 +1333,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1362,7 +1342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1380,7 +1360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1395,7 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1404,7 +1384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1422,7 +1402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1436,7 +1416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1454,7 +1434,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1472,7 +1452,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1491,7 +1471,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1514,7 +1494,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1532,7 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1550,7 +1530,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1569,7 +1549,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1589,7 +1569,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1599,7 +1579,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1608,7 +1588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1619,7 +1599,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1637,7 +1617,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1655,7 +1635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1673,7 +1653,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1692,7 +1672,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1710,7 +1690,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1728,7 +1708,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1747,7 +1727,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1765,7 +1745,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1783,7 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1801,7 +1781,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1820,7 +1800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1831,7 +1811,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1841,7 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1850,7 +1830,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1861,7 +1841,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1879,7 +1859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1890,7 +1870,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1908,7 +1888,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1927,7 +1907,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
@@ -1975,6 +1955,12 @@
     <t>SMS_ENABLED_FLAG</t>
   </si>
   <si>
+    <t>WEBHOOK_OTHER_ENABLED_FLAG</t>
+  </si>
+  <si>
+    <t>WEBHOOK_JSON_ENABLED_FLAG</t>
+  </si>
+  <si>
     <t>IS_EDIT</t>
   </si>
   <si>
@@ -2116,6 +2102,135 @@
     <t>app-service-notice</t>
   </si>
   <si>
+    <t>createOrganization</t>
+  </si>
+  <si>
+    <t>创建组织</t>
+  </si>
+  <si>
+    <t>deleteUserRoles</t>
+  </si>
+  <si>
+    <t>删除用户所有项目角色</t>
+  </si>
+  <si>
+    <t>stopUser</t>
+  </si>
+  <si>
+    <t>停用用户</t>
+  </si>
+  <si>
+    <t>createProject</t>
+  </si>
+  <si>
+    <t>创建项目</t>
+  </si>
+  <si>
+    <t>createAppService</t>
+  </si>
+  <si>
+    <t>创建应用服务</t>
+  </si>
+  <si>
+    <t>createEnv</t>
+  </si>
+  <si>
+    <t>创建环境</t>
+  </si>
+  <si>
+    <t>env-notice</t>
+  </si>
+  <si>
+    <t>enableEnv</t>
+  </si>
+  <si>
+    <t>启用环境</t>
+  </si>
+  <si>
+    <t>disableEnv</t>
+  </si>
+  <si>
+    <t>停用环境</t>
+  </si>
+  <si>
+    <t>deleteEnv</t>
+  </si>
+  <si>
+    <t>删除环境</t>
+  </si>
+  <si>
+    <t>createEnvFailed</t>
+  </si>
+  <si>
+    <t>创建环境失败</t>
+  </si>
+  <si>
+    <t>updateEnvPermissions</t>
+  </si>
+  <si>
+    <t>环境权限分配</t>
+  </si>
+  <si>
+    <t>createCluster</t>
+  </si>
+  <si>
+    <t>创建集群</t>
+  </si>
+  <si>
+    <t>cluster-notice</t>
+  </si>
+  <si>
+    <t>activateCluster</t>
+  </si>
+  <si>
+    <t>激活集群</t>
+  </si>
+  <si>
+    <t>deleteCluster</t>
+  </si>
+  <si>
+    <t>删除集群</t>
+  </si>
+  <si>
+    <t>createClusterFailed</t>
+  </si>
+  <si>
+    <t>创建集群失败</t>
+  </si>
+  <si>
+    <t>resourceInstallFailed</t>
+  </si>
+  <si>
+    <t>组件安装失败</t>
+  </si>
+  <si>
+    <t>gitLabContinuousDeliverySuccess</t>
+  </si>
+  <si>
+    <t>持续集成流水线成功</t>
+  </si>
+  <si>
+    <t>code-management-notice</t>
+  </si>
+  <si>
+    <t>createResourceFailed</t>
+  </si>
+  <si>
+    <t>创建资源失败</t>
+  </si>
+  <si>
+    <t>createResource</t>
+  </si>
+  <si>
+    <t>创建资源</t>
+  </si>
+  <si>
+    <t>deleteResource</t>
+  </si>
+  <si>
+    <t>删除资源</t>
+  </si>
+  <si>
     <t>NOTIFY_TEMPLATE</t>
   </si>
   <si>
@@ -2207,219 +2322,6 @@
   </si>
   <si>
     <t>choerodon验证邮件</t>
-  </si>
-  <si>
-    <t>registerOrganization-preset</t>
-  </si>
-  <si>
-    <t>registerOrganization</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;img src="https://file.choerodon.com.cn/static/c7nlogo.jpg"&gt;&lt;/p&gt;&lt;p&gt;亲爱的用户，您好！&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&amp;nbsp;&amp;nbsp;欢迎使用Choerodon平台，您正在进行邮箱验证，本次请求的验证码为&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;strong style="font-size: 18px; color: rgb(0, 71, 178);"&gt;&amp;nbsp;&amp;nbsp;${captcha}&lt;/strong&gt;&lt;span style="color: rgb(136, 136, 136);"&gt;（为了保障您的账户安全，请在${timeout}分钟内完成验证。）&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Thanks，&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Choerodon&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;此邮件为系统邮件，请勿回复。如需了解更多信息，请访问&lt;a href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或&lt;a href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。您也可以通过以下方式联系我们：&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;img src="https://file.choerodon.com.cn/static/sina.png"&gt;&lt;img src="https://file.choerodon.com.cn/static/wechat.png"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>jobStatusSite-preset</t>
-  </si>
-  <si>
-    <t>${jobName}状态发生变更</t>
-  </si>
-  <si>
-    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
-  </si>
-  <si>
-    <t>jobStatusOrganization-preset</t>
-  </si>
-  <si>
-    <t>jobStatusProject-preset</t>
-  </si>
-  <si>
-    <t>jobStatusProject</t>
-  </si>
-  <si>
-    <t>sagaInstanceFail-preset</t>
-  </si>
-  <si>
-    <t>事务实例失败</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>resourceDeleteConfirmation-preset</t>
-  </si>
-  <si>
-    <t>资源删除验证email</t>
-  </si>
-  <si>
-    <t>您好，${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
-  </si>
-  <si>
-    <t>资源删除验证pm</t>
-  </si>
-  <si>
-    <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码11分钟内有效。</t>
-  </si>
-  <si>
-    <t>NOTIFY_SEND_SETTING_CATEGORY</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>用户的操作触发的其他类型通知</t>
-  </si>
-  <si>
-    <t>关于平台层一系列操作的通知</t>
-  </si>
-  <si>
-    <t>账户安全通知</t>
-  </si>
-  <si>
-    <t>用户账户密码被修改后，进行安全警示或身份认证</t>
-  </si>
-  <si>
-    <t>register-org-notice</t>
-  </si>
-  <si>
-    <t>注册组织通知</t>
-  </si>
-  <si>
-    <t>包括注册审批，以及注册用户消息提醒，异常处理通知</t>
-  </si>
-  <si>
-    <t>组织消息</t>
-  </si>
-  <si>
-    <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
-  </si>
-  <si>
-    <t>项目消息</t>
-  </si>
-  <si>
-    <t>项目管理过程中触发的一系列事件的通知</t>
-  </si>
-  <si>
-    <t>issue-status-change-notice</t>
-  </si>
-  <si>
-    <t>敏捷通知</t>
-  </si>
-  <si>
-    <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
-  </si>
-  <si>
-    <t>应用服务通知</t>
-  </si>
-  <si>
-    <t>应用服务创建失败、启用、停用通知</t>
-  </si>
-  <si>
-    <t>code-management-notice</t>
-  </si>
-  <si>
-    <t>代码管理通知</t>
-  </si>
-  <si>
-    <t>合并请求以及持续集成通知</t>
-  </si>
-  <si>
-    <t>deployment-resources-notice</t>
-  </si>
-  <si>
-    <t>部署资源通知</t>
-  </si>
-  <si>
-    <t>部署实例、网络、域名等资源失败通知</t>
-  </si>
-  <si>
-    <t>stream-change-notice</t>
-  </si>
-  <si>
-    <t>流水线通知</t>
-  </si>
-  <si>
-    <t>应用服务开发过程中流水线的变更通知，包括：待审批、成功、失败、被终止</t>
-  </si>
-  <si>
-    <t>资源删除验证</t>
-  </si>
-  <si>
-    <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
-  </si>
-  <si>
-    <t>add-or-import-user</t>
-  </si>
-  <si>
-    <t>添加/导入用户通知</t>
-  </si>
-  <si>
-    <t>添加或者导入用户的通知</t>
-  </si>
-  <si>
-    <t>NOTIFY_MESSAGE_SETTING</t>
-  </si>
-  <si>
-    <t>#NOTIFY_TYPE</t>
-  </si>
-  <si>
-    <t>#PROJECT_ID</t>
-  </si>
-  <si>
-    <t>#ENV_ID</t>
-  </si>
-  <si>
-    <t>#EVENT_NAME</t>
-  </si>
-  <si>
-    <t>PM_ENABLE</t>
-  </si>
-  <si>
-    <t>EMAIL_ENABLE</t>
-  </si>
-  <si>
-    <t>SMS_ENABLE</t>
-  </si>
-  <si>
-    <t>default-instance</t>
-  </si>
-  <si>
-    <t>resourceDelete</t>
-  </si>
-  <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t>default-ingress</t>
-  </si>
-  <si>
-    <t>ingress</t>
-  </si>
-  <si>
-    <t>default-configMap</t>
-  </si>
-  <si>
-    <t>configMap</t>
-  </si>
-  <si>
-    <t>default-certificate</t>
-  </si>
-  <si>
-    <t>certificate</t>
-  </si>
-  <si>
-    <t>default-secret</t>
-  </si>
-  <si>
-    <t>secret</t>
-  </si>
-  <si>
-    <t>default-service</t>
-  </si>
-  <si>
-    <t>service</t>
   </si>
   <si>
     <t>&lt;!doctype html&gt;
@@ -2629,335 +2531,248 @@
 &lt;/div&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_message_setting_target</t>
-  </si>
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#type</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#user_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#MESSAGE_SETTING_ID</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectOwner</t>
-  </si>
-  <si>
-    <t>handler</t>
-  </si>
-  <si>
-    <t>instance</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerOrganization-preset</t>
+  </si>
+  <si>
+    <t>registerOrganization</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://file.choerodon.com.cn/static/c7nlogo.jpg"&gt;&lt;/p&gt;&lt;p&gt;亲爱的用户，您好！&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&amp;nbsp;&amp;nbsp;欢迎使用Choerodon平台，您正在进行邮箱验证，本次请求的验证码为&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;strong style="font-size: 18px; color: rgb(0, 71, 178);"&gt;&amp;nbsp;&amp;nbsp;${captcha}&lt;/strong&gt;&lt;span style="color: rgb(136, 136, 136);"&gt;（为了保障您的账户安全，请在${timeout}分钟内完成验证。）&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Thanks，&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Choerodon&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;此邮件为系统邮件，请勿回复。如需了解更多信息，请访问&lt;a href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或&lt;a href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。您也可以通过以下方式联系我们：&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;img src="https://file.choerodon.com.cn/static/sina.png"&gt;&lt;img src="https://file.choerodon.com.cn/static/wechat.png"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>jobStatusSite-preset</t>
+  </si>
+  <si>
+    <t>${jobName}状态发生变更</t>
+  </si>
+  <si>
+    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
+  </si>
+  <si>
+    <t>jobStatusOrganization-preset</t>
+  </si>
+  <si>
+    <t>jobStatusProject-preset</t>
+  </si>
+  <si>
+    <t>jobStatusProject</t>
+  </si>
+  <si>
+    <t>sagaInstanceFail-preset</t>
+  </si>
+  <si>
+    <t>事务实例失败</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>resourceDeleteConfirmation-preset</t>
+  </si>
+  <si>
+    <t>资源删除验证email</t>
+  </si>
+  <si>
+    <t>您好，${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
+  </si>
+  <si>
+    <t>资源删除验证pm</t>
+  </si>
+  <si>
+    <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码11分钟内有效。</t>
+  </si>
+  <si>
+    <t>disableAppService-webHookOther</t>
   </si>
   <si>
     <t>webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choerodon敏捷通知-问题创建</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>disableAppService</t>
   </si>
   <si>
-    <t>disableAppService</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>应用服务已停用</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableAppService-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目：${projectName}下的应用服务：${appServiceName}已被停用。</t>
+  </si>
+  <si>
+    <t>enableAppService-webHookOther</t>
+  </si>
+  <si>
+    <t>enableAppService</t>
   </si>
   <si>
     <t>应用服务已启用</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableAppService</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableAppService-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目：${projectName}下的应用服务：${appServiceName}已被启用。</t>
+  </si>
+  <si>
+    <t>pi-complete-webHookOther</t>
+  </si>
+  <si>
+    <t>pi-complete</t>
   </si>
   <si>
     <t>PI已完成</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>项目群：${programName} 中, PI：${piName} 已被完成。 此PI下的冲刺 ${sprintNameList} 已被自动完成。
 如有未完成的问题，将移动到待办事项或下个冲刺中。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目：${projectName}下的应用服务：${appServiceName}已被停用。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目：${projectName}下的应用服务：${appServiceName}已被启用。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi-complete-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi-complete</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableProject-webHookOther</t>
   </si>
   <si>
     <t>项目：${projectName} 已被启用。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableProject</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableProject-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用项目</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用项目</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableProject-webHookOther</t>
   </si>
   <si>
     <t>项目：${projectName} 已被停用。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableProject</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableProject-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinefailed-webHookOther</t>
+  </si>
+  <si>
+    <t>pipelinefailed</t>
   </si>
   <si>
     <t>流水线失败</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>项目“${projectName}”中的流水线“${pipelineName}”执行失败。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipelinefailed-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipelinefailed</t>
+  </si>
+  <si>
+    <t>pipelinesuccess-webHookOther</t>
+  </si>
+  <si>
+    <t>pipelinesuccess</t>
   </si>
   <si>
     <t>流水线成功</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>项目“${projectName}”中的流水线“${pipelineName}”执行成功。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipelinesuccess</t>
-  </si>
-  <si>
-    <t>pipelinesuccess</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableOrganization-webHookOther</t>
   </si>
   <si>
     <t>组织：${organizationName} 已被启用。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableOrganization-webHookOther</t>
   </si>
   <si>
     <t>组织：${organizationName} 已被停用。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>${jobName}状态发生变更</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusOrganization-webHookOther</t>
   </si>
   <si>
     <t>${jobName}任务已${jobStatus}，请注意查看。</t>
   </si>
   <si>
-    <t>jobStatusOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>事务实例失败</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>sagaInstanceFail</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <t>sagaInstanceFail-webHookOther</t>
   </si>
   <si>
     <t>${userName}触发事务实例运行失败。编号:${sagaInstanceId}；所属事务:${sagaCode}；层级:${level}。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueCreate-webHookOther</t>
   </si>
   <si>
     <t>issueCreate</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choerodon敏捷通知-问题创建</t>
+  </si>
+  <si>
+    <t>${assigneeName} (${assigneeLoginName})创建了问题${issueNumber}，${summary}</t>
+  </si>
+  <si>
+    <t>issueAssignee-webHookOther</t>
   </si>
   <si>
     <t>issueAssignee</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Choerodon敏捷通知-问题分配</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题${issueNumbeer}，${summary}已被分配给 ${assigneeName} (${assigneeLoginName})。</t>
+  </si>
+  <si>
+    <t>issueSolve-webHookOther</t>
+  </si>
+  <si>
+    <t>issueSolve</t>
   </si>
   <si>
     <t>Choerodon敏捷通知-问题已解决</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>${assigneeName} (${assigneeLoginName})创建了问题${issueNumber}，${summary}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题${issueNumbeer}，${summary}已被分配给 ${assigneeName} (${assigneeLoginName})。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>问题${issueNumbeer}，${summary}已被 ${assigneeName} (${assigneeLoginName})解决。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>issueSolve</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipelinesuccess-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableOrganization-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableOrganization-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobStatusOrganization-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>sagaInstanceFail-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>issueCreate-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>issueAssignee-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>issueSolve-webHookOther</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEBHOOK_OTHER_ENABLED_FLAG</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEBHOOK_JSON_ENABLED_FLAG</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>org-management</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>createOrganization-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>创建组织Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用组织Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用组织Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织任务状态通知Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
-    "objectKind":"jobStatusOrganization",
-    "eventName":"组织任务状态",
+    "objectKind":"createOrganization",
+    "eventName":"创建组织",
     "objectAttributes":{
         "organizationId":1,
-        "jobName":"jobName",
-        "jobStatus":"COMPLETED",
-        "startedAt":"2020-03-12 07:06:03 UTC",
-        "finishedAt":"2020-03-12 07:06:54 UTC"
-    }
+        "name":"orgName",
+        "code":"orgCode",
+        "category":"DEFAULT"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableOrganization-webHookJson</t>
+  </si>
+  <si>
+    <t>启用组织Json</t>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"enableOrganization",
+    "eventName":"启用组织",
+    "objectAttributes":{
+        "organizationId":1,
+        "code":"orgCode",
+        "name":"orgName",
+        "enabled":true
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+  </si>
+  <si>
+    <t>disableOrganization-webHookJson</t>
+  </si>
+  <si>
+    <t>停用组织Json</t>
   </si>
   <si>
     <t>{
@@ -2975,17 +2790,48 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusOrganization-webHookJson</t>
+  </si>
+  <si>
+    <t>组织任务状态通知Json</t>
   </si>
   <si>
     <t>{
-    "objectKind":"enableOrganization",
-    "eventName":"启用组织",
+    "objectKind":"jobStatusOrganization",
+    "eventName":"组织任务状态",
     "objectAttributes":{
         "organizationId":1,
-        "code":"orgCode",
-        "name":"orgName",
-        "enabled":true
+        "jobName":"jobName",
+        "jobStatus":"COMPLETED",
+        "startedAt":"2020-03-12 07:06:03 UTC",
+        "finishedAt":"2020-03-12 07:06:54 UTC"
+    }
+}</t>
+  </si>
+  <si>
+    <t>addMember-webHookJson</t>
+  </si>
+  <si>
+    <t>addMember</t>
+  </si>
+  <si>
+    <t>管理员添加成员Json（组织层）</t>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"addMember",
+    "eventName":"管理员添加成员（组织层）",
+    "objectAttributes":{
+        "organizationId":1,
+        "addCount":1,
+        "userList":[
+            {
+                "loginName":"user2",
+                "userName":"user2"
+            }
+        ]
     },
     "user":{
         "loginName":"admin",
@@ -2993,53 +2839,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "objectKind":"createOrganization",
-    "eventName":"创建组织",
-    "objectAttributes":{
-        "organizationId":1,
-        "name":"orgName",
-        "code":"orgCode",
-        "category":"DEFAULT"
-    },
-    "user":{
-        "loginName":"admin",
-        "userName":"admin"
-    },
-    "createdAt":"2020-03-12 06:13:50 UTC"
-}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除用户所有项目角色</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除用户所有项目角色Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteUserRoles</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopUser-webHookJson</t>
   </si>
   <si>
     <t>停用用户Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>stopUser</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用用户</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3056,22 +2861,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createProject</t>
-  </si>
-  <si>
-    <t>createProject</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建项目</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createProject-webHookJson</t>
   </si>
   <si>
     <t>创建项目json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3091,15 +2886,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableProject-webHookJson</t>
   </si>
   <si>
     <t>启用项目Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用项目Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3115,7 +2907,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableProject-webHookJson</t>
+  </si>
+  <si>
+    <t>停用项目Json</t>
   </si>
   <si>
     <t>{
@@ -3131,15 +2928,15 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectAddUser-webHookJson</t>
   </si>
   <si>
     <t>projectAddUser</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>管理员添加/导入成员Json（项目层</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3161,7 +2958,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteUserRoles-webHookJson</t>
+  </si>
+  <si>
+    <t>删除用户所有项目角色Json</t>
   </si>
   <si>
     <t>{
@@ -3180,26 +2982,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createAppService</t>
-  </si>
-  <si>
-    <t>createAppService</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建应用服务</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAppService-webHookJson</t>
   </si>
   <si>
     <t>创建应用服务Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用应用服务Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3218,7 +3006,33 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableAppService-webHookJson</t>
+  </si>
+  <si>
+    <t>启用应用服务Json</t>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"enableAppService",
+    "eventName":"启用应用服务",
+    "objectAttributes":{
+        "appServerId":1,
+        "appServerCode":"enableAppService",
+        "appServerName":"appServerName",
+        "appServerType":"normal",
+        "projectId":679,
+        "enabled":true    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+  </si>
+  <si>
+    <t>停用应用服务Json</t>
   </si>
   <si>
     <t>{
@@ -3238,26 +3052,9 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "objectKind":"enableAppService",
-    "eventName":"启用应用服务",
-    "objectAttributes":{
-        "appServerId":1,
-        "appServerCode":"enableAppService",
-        "appServerName":"appServerName",
-        "appServerType":"normal",
-        "projectId":679,
-        "enabled":true    },
-    "user":{
-        "loginName":"admin",
-        "userName":"admin"
-    },
-    "createdAt":"2020-03-12 06:13:50 UTC"
-}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除应用服务Json</t>
   </si>
   <si>
     <t>{
@@ -3276,23 +3073,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除应用服务Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteAppService</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>appServiceCreationFailure</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>创建应用服务失败Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3312,15 +3098,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createEnv</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建环境</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createEnv-webHookJson</t>
+  </si>
+  <si>
+    <t>创建环境Json</t>
   </si>
   <si>
     <t>{
@@ -3339,19 +3122,9 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建环境Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableEnv</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用环境</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableEnv-webHookJson</t>
   </si>
   <si>
     <t>{
@@ -3370,19 +3143,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableEnv</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用环境</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableEnv-webHookJson</t>
   </si>
   <si>
     <t>停用环境Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3401,15 +3167,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteEnv</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除环境</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteEnv-webHookJson</t>
+  </si>
+  <si>
+    <t>删除环境Json</t>
   </si>
   <si>
     <t>{
@@ -3428,23 +3191,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除环境Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createEnvFailed</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建环境失败</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createEnvFailed-webHookJson</t>
   </si>
   <si>
     <t>创建环境失败Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3464,24 +3216,17 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateEnvPermissions</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境权限分配</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateEnvPermissions-webHookJson</t>
   </si>
   <si>
     <t>环境权限分配Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
-    "objectKind":"createEnvFailed",
-    "eventName":"创建环境失败",
+    "objectKind":"updateEnvPermissions",
+    "eventName":"环境权限分配",
     "objectAttributes":{
         "enveId":1,
         "envCode":"envCode",
@@ -3502,18 +3247,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createCluster</t>
-  </si>
-  <si>
-    <t>createCluster</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createCluster-webHookJson</t>
   </si>
   <si>
     <t>创建集群Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3531,23 +3270,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活集群</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建集群</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>activateCluster-webHookJson</t>
   </si>
   <si>
     <t>激活集群Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>activateCluster</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3565,11 +3293,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteCluster</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteCluster-webHookJson</t>
+  </si>
+  <si>
+    <t>删除集群Json</t>
   </si>
   <si>
     <t>{
@@ -3587,23 +3316,9 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除集群Json</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除集群</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createClusterFailed</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建集群失败</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createClusterFailed-webHookJson</t>
   </si>
   <si>
     <t>{
@@ -3622,18 +3337,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceInstallFailed</t>
-  </si>
-  <si>
-    <t>resourceInstallFailed</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceInstallFailed-webHookJson</t>
   </si>
   <si>
     <t>安装组件失败</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3652,22 +3361,36 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitLabContinuousDeliveryFailure-webHookJson</t>
   </si>
   <si>
     <t>gitLabContinuousDeliveryFailure</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>持续集成流水线失败</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitLabContinuousDeliverySuccess</t>
-  </si>
-  <si>
-    <t>gitLabContinuousDeliverySuccess</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"gitLabContinuousDeliveryFailure",
+    "eventName":"持续集成流水线失败",
+    "objectAttributes":{
+        "projectId":1,
+        "projectName":"projectName",
+        "appServiceId":1,
+        "appServiceName":"appServiceName",
+        "status":"failed"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+  </si>
+  <si>
+    <t>gitLabContinuousDeliverySuccess-webHookJson</t>
   </si>
   <si>
     <t>{
@@ -3686,38 +3409,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "objectKind":"gitLabContinuousDeliveryFailure",
-    "eventName":"持续集成流水线失败",
-    "objectAttributes":{
-        "projectId":1,
-        "projectName":"projectName",
-        "appServiceId":1,
-        "appServiceName":"appServiceName",
-        "status":"failed"
-    },
-    "user":{
-        "loginName":"admin",
-        "userName":"admin"
-    },
-    "createdAt":"2020-03-12 06:13:50 UTC"
-}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续集成流水线成功</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>createAppServiceVersion</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>生成应用服务版本</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3737,22 +3434,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createResourceFailed</t>
-  </si>
-  <si>
-    <t>createResourceFailed</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建资源失败</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createResourceFailed-webHookJson</t>
   </si>
   <si>
     <t>创建资源是失败</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3773,15 +3460,9 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createResource</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建资源</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>createResource-webHookJson</t>
   </si>
   <si>
     <t>{
@@ -3802,7 +3483,9 @@
     },
     "createdAt": "2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteResource-webHookJson</t>
   </si>
   <si>
     <t>{
@@ -3823,18 +3506,12 @@
     },
     "createdAt": "2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteResource</t>
-  </si>
-  <si>
-    <t>deleteResource</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除资源</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinesuccess-webHookJson</t>
+  </si>
+  <si>
+    <t>流水线执行成功</t>
   </si>
   <si>
     <t>{
@@ -3853,19 +3530,12 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线执行成功</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipelinefailed</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinefailed-webHookJson</t>
   </si>
   <si>
     <t>流水线执行失败</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3884,23 +3554,15 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinepass-webHookJson</t>
   </si>
   <si>
     <t>pipelinepass</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipelinestop</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>流水线或签审核通过</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线被终止</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -3921,7 +3583,15 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipelinestop-webHookJson</t>
+  </si>
+  <si>
+    <t>pipelinestop</t>
+  </si>
+  <si>
+    <t>流水线被终止</t>
   </si>
   <si>
     <t>{
@@ -3942,211 +3612,221 @@
     },
     "createdAt":"2020-03-12 06:13:50 UTC"
 }</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableOrganization-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableOrganization-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobStatusOrganization-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>stopUser-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createProject-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableProject-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableProject-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectAddUser-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteUserRoles-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createAppService-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableAppService-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createEnv-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableEnv-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableEnv-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteEnv-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createEnvFailed-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateEnvPermissions-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createCluster-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>activateCluster-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteCluster-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createClusterFailed-webHookJson</t>
-  </si>
-  <si>
-    <t>resourceInstallFailed-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitLabContinuousDeliveryFailure-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitLabContinuousDeliverySuccess-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createResourceFailed-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>createResource-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteResource-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipelinesuccess-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipelinefailed-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipelinepass-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipelinestop-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pro-management</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>env-notice</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTIFY_SEND_SETTING_CATEGORY</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>用户的操作触发的其他类型通知</t>
+  </si>
+  <si>
+    <t>关于平台层一系列操作的通知</t>
+  </si>
+  <si>
+    <t>账户安全通知</t>
+  </si>
+  <si>
+    <t>用户账户密码被修改后，进行安全警示或身份认证</t>
+  </si>
+  <si>
+    <t>register-org-notice</t>
+  </si>
+  <si>
+    <t>注册组织通知</t>
+  </si>
+  <si>
+    <t>包括注册审批，以及注册用户消息提醒，异常处理通知</t>
+  </si>
+  <si>
+    <t>组织消息</t>
+  </si>
+  <si>
+    <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
+  </si>
+  <si>
+    <t>项目消息</t>
+  </si>
+  <si>
+    <t>项目管理过程中触发的一系列事件的通知</t>
+  </si>
+  <si>
+    <t>issue-status-change-notice</t>
+  </si>
+  <si>
+    <t>敏捷通知</t>
+  </si>
+  <si>
+    <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
+  </si>
+  <si>
+    <t>应用服务通知</t>
+  </si>
+  <si>
+    <t>应用服务创建失败、启用、停用通知</t>
+  </si>
+  <si>
+    <t>代码管理通知</t>
+  </si>
+  <si>
+    <t>合并请求以及持续集成通知</t>
+  </si>
+  <si>
+    <t>deployment-resources-notice</t>
+  </si>
+  <si>
+    <t>部署资源通知</t>
+  </si>
+  <si>
+    <t>部署实例、网络、域名等资源失败通知</t>
+  </si>
+  <si>
+    <t>stream-change-notice</t>
+  </si>
+  <si>
+    <t>流水线通知</t>
+  </si>
+  <si>
+    <t>应用服务开发过程中流水线的变更通知，包括：待审批、成功、失败、被终止</t>
+  </si>
+  <si>
+    <t>资源删除验证</t>
+  </si>
+  <si>
+    <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
+  </si>
+  <si>
+    <t>add-or-import-user</t>
+  </si>
+  <si>
+    <t>添加/导入用户通知</t>
+  </si>
+  <si>
+    <t>添加或者导入用户的通知</t>
   </si>
   <si>
     <t>环境通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>创建、删除、停用环境通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster-notice</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>集群通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>创建、删除、激活集群通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件安装失败</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>code-management-notice</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addMember-webHookJson</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addMember</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "objectKind":"addMember",
-    "eventName":"管理员添加成员（组织层）",
-    "objectAttributes":{
-        "organizationId":1,
-        "addCount":1,
-        "userList":[
-            {
-                "loginName":"user2",
-                "userName":"user2"
-            }
-        ]
-    },
-    "user":{
-        "loginName":"admin",
-        "userName":"admin"
-    },
-    "createdAt":"2020-03-12 06:13:50 UTC"
-}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员添加成员Json（组织层）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTIFY_MESSAGE_SETTING</t>
+  </si>
+  <si>
+    <t>#NOTIFY_TYPE</t>
+  </si>
+  <si>
+    <t>#PROJECT_ID</t>
+  </si>
+  <si>
+    <t>#ENV_ID</t>
+  </si>
+  <si>
+    <t>#EVENT_NAME</t>
+  </si>
+  <si>
+    <t>PM_ENABLE</t>
+  </si>
+  <si>
+    <t>EMAIL_ENABLE</t>
+  </si>
+  <si>
+    <t>SMS_ENABLE</t>
+  </si>
+  <si>
+    <t>default-instance</t>
+  </si>
+  <si>
+    <t>resourceDelete</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>default-ingress</t>
+  </si>
+  <si>
+    <t>ingress</t>
+  </si>
+  <si>
+    <t>default-configMap</t>
+  </si>
+  <si>
+    <t>configMap</t>
+  </si>
+  <si>
+    <t>default-certificate</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>default-secret</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>default-service</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>#user_id</t>
+  </si>
+  <si>
+    <t>#MESSAGE_SETTING_ID</t>
+  </si>
+  <si>
+    <t>projectOwner</t>
+  </si>
+  <si>
+    <t>handler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4159,7 +3839,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4178,14 +3858,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4203,13 +3883,164 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4227,13 +4058,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4245,22 +4076,10 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4291,8 +4110,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4393,9 +4398,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4403,10 +4650,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4422,36 +4675,48 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4463,7 +4728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4472,53 +4737,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4591,9 +4885,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4851,286 +5142,287 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.6328125" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="100.633333333333" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.9" customHeight="1">
-      <c r="A1" s="6"/>
-      <c r="C1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" ht="63.9" customHeight="1" spans="1:8">
+      <c r="A1" s="8"/>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="48.9" customHeight="1">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" ht="48.9" customHeight="1" spans="1:7">
       <c r="A3"/>
-      <c r="C3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="35" t="s">
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.2">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="30" spans="1:7">
       <c r="A4"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="8"/>
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="4:4">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="16" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="156">
-      <c r="C9" s="19" t="s">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" ht="161.25" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="202.8">
-      <c r="C10" s="22" t="s">
+    <row r="10" ht="191.25" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1">
-      <c r="C11" s="16" t="s">
+    <row r="11" ht="85.5" customHeight="1" spans="3:5">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="46.8">
-      <c r="C12" s="16" t="s">
+    <row r="12" ht="44.25" spans="3:5">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" ht="126.6">
-      <c r="C15" s="24" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" ht="132.75" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="4:4">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="4:4">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="12" t="s">
+    <row r="18" spans="3:4">
+      <c r="C18" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="27" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="27" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="27" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="27" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="4:4">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="29" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C26" s="17" t="s">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="3:5" ht="31.2">
-      <c r="C27" s="30" t="s">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="30" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="5.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="37.90625" customWidth="1"/>
-    <col min="6" max="6" width="39.90625" customWidth="1"/>
-    <col min="7" max="7" width="36.36328125" customWidth="1"/>
-    <col min="8" max="8" width="32.7265625" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.725" customWidth="1"/>
+    <col min="4" max="4" width="16.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="37.9083333333333" customWidth="1"/>
+    <col min="6" max="6" width="39.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.3666666666667" customWidth="1"/>
+    <col min="8" max="8" width="32.725" customWidth="1"/>
+    <col min="10" max="10" width="14.9083333333333" customWidth="1"/>
+    <col min="11" max="11" width="20.3666666666667" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="36.81640625" customWidth="1"/>
-    <col min="14" max="14" width="18.6328125" customWidth="1"/>
-    <col min="15" max="15" width="24.453125" customWidth="1"/>
-    <col min="16" max="16" width="27.36328125" customWidth="1"/>
-    <col min="17" max="17" width="20.90625" customWidth="1"/>
-    <col min="18" max="18" width="33.54296875" customWidth="1"/>
-    <col min="19" max="19" width="20.90625" customWidth="1"/>
+    <col min="13" max="13" width="36.8166666666667" customWidth="1"/>
+    <col min="14" max="14" width="18.6333333333333" customWidth="1"/>
+    <col min="15" max="15" width="24.45" customWidth="1"/>
+    <col min="16" max="16" width="27.3666666666667" customWidth="1"/>
+    <col min="17" max="17" width="20.9083333333333" customWidth="1"/>
+    <col min="18" max="18" width="33.5416666666667" customWidth="1"/>
+    <col min="19" max="19" width="20.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:20">
@@ -5177,30 +5469,30 @@
         <v>57</v>
       </c>
       <c r="R7" t="s">
-        <v>277</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>278</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="4:20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="5:20">
       <c r="E8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5215,407 +5507,407 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:20">
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:20">
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:20">
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:20">
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:20">
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:20">
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:20">
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:20">
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
         <v>63</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:20">
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:20">
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:20">
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:20">
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:20">
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" t="s">
-        <v>276</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>279</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="4:20">
-      <c r="E14" t="s">
+      <c r="I16" t="s">
         <v>84</v>
       </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
         <v>85</v>
-      </c>
-      <c r="H14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" t="s">
-        <v>276</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>279</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="4:20">
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:20">
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>83</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -5638,19 +5930,19 @@
     </row>
     <row r="17" spans="5:20">
       <c r="E17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -5665,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -5688,19 +5980,19 @@
     </row>
     <row r="18" spans="5:20">
       <c r="E18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -5715,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -5738,34 +6030,34 @@
     </row>
     <row r="19" spans="5:20">
       <c r="E19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>98</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -5788,19 +6080,19 @@
     </row>
     <row r="20" spans="5:20">
       <c r="E20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -5815,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -5838,19 +6130,19 @@
     </row>
     <row r="21" spans="5:20">
       <c r="E21" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="I21" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -5865,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>279</v>
+        <v>85</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -5888,19 +6180,19 @@
     </row>
     <row r="22" spans="5:20">
       <c r="E22" t="s">
-        <v>294</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>294</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="H22" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="I22" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -5915,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -5936,21 +6228,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:20" ht="14.4" customHeight="1">
+    <row r="23" ht="14.4" customHeight="1" spans="5:20">
       <c r="E23" t="s">
-        <v>297</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>297</v>
+        <v>111</v>
       </c>
       <c r="G23" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -5965,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>279</v>
+        <v>85</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -5988,19 +6280,19 @@
     </row>
     <row r="24" spans="5:20">
       <c r="E24" t="s">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>301</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>302</v>
+        <v>114</v>
       </c>
       <c r="H24" t="s">
-        <v>302</v>
+        <v>114</v>
       </c>
       <c r="I24" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -6015,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -6038,19 +6330,19 @@
     </row>
     <row r="25" spans="5:20">
       <c r="E25" t="s">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
-        <v>315</v>
+        <v>116</v>
       </c>
       <c r="H25" t="s">
-        <v>315</v>
+        <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -6065,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -6088,19 +6380,19 @@
     </row>
     <row r="26" spans="5:20">
       <c r="E26" t="s">
-        <v>327</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>327</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>328</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>328</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -6115,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>435</v>
+        <v>119</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -6138,19 +6430,19 @@
     </row>
     <row r="27" spans="5:20">
       <c r="E27" t="s">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>332</v>
+        <v>121</v>
       </c>
       <c r="H27" t="s">
-        <v>332</v>
+        <v>121</v>
       </c>
       <c r="I27" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -6165,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>435</v>
+        <v>119</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -6188,19 +6480,19 @@
     </row>
     <row r="28" spans="5:20">
       <c r="E28" t="s">
-        <v>334</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>334</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>335</v>
+        <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>335</v>
+        <v>123</v>
       </c>
       <c r="I28" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -6215,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>435</v>
+        <v>119</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -6238,19 +6530,19 @@
     </row>
     <row r="29" spans="5:20">
       <c r="E29" t="s">
-        <v>338</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
-        <v>338</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="I29" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -6265,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>435</v>
+        <v>119</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -6288,19 +6580,19 @@
     </row>
     <row r="30" spans="5:20">
       <c r="E30" t="s">
-        <v>342</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
+        <v>126</v>
       </c>
       <c r="G30" t="s">
-        <v>343</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s">
-        <v>343</v>
+        <v>127</v>
       </c>
       <c r="I30" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -6315,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>435</v>
+        <v>119</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -6338,19 +6630,19 @@
     </row>
     <row r="31" spans="5:20">
       <c r="E31" t="s">
-        <v>346</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>346</v>
+        <v>128</v>
       </c>
       <c r="G31" t="s">
-        <v>347</v>
+        <v>129</v>
       </c>
       <c r="H31" t="s">
-        <v>347</v>
+        <v>129</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -6365,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>435</v>
+        <v>119</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -6388,19 +6680,19 @@
     </row>
     <row r="32" spans="5:20">
       <c r="E32" t="s">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="H32" t="s">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -6415,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -6438,19 +6730,19 @@
     </row>
     <row r="33" spans="5:20">
       <c r="E33" t="s">
-        <v>357</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>357</v>
+        <v>133</v>
       </c>
       <c r="G33" t="s">
-        <v>354</v>
+        <v>134</v>
       </c>
       <c r="H33" t="s">
-        <v>354</v>
+        <v>134</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -6465,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -6488,19 +6780,19 @@
     </row>
     <row r="34" spans="5:20">
       <c r="E34" t="s">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="G34" t="s">
-        <v>362</v>
+        <v>136</v>
       </c>
       <c r="H34" t="s">
-        <v>362</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -6515,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -6538,19 +6830,19 @@
     </row>
     <row r="35" spans="5:20">
       <c r="E35" t="s">
-        <v>363</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>363</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="H35" t="s">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -6565,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -6588,19 +6880,19 @@
     </row>
     <row r="36" spans="5:20">
       <c r="E36" t="s">
-        <v>367</v>
+        <v>139</v>
       </c>
       <c r="F36" t="s">
-        <v>366</v>
+        <v>139</v>
       </c>
       <c r="G36" t="s">
-        <v>441</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
-        <v>441</v>
+        <v>140</v>
       </c>
       <c r="I36" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -6615,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -6638,19 +6930,19 @@
     </row>
     <row r="37" spans="5:20">
       <c r="E37" t="s">
-        <v>373</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>141</v>
       </c>
       <c r="G37" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
       <c r="H37" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -6665,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>442</v>
+        <v>143</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -6688,19 +6980,19 @@
     </row>
     <row r="38" spans="5:20">
       <c r="E38" t="s">
-        <v>381</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>381</v>
+        <v>144</v>
       </c>
       <c r="G38" t="s">
-        <v>382</v>
+        <v>145</v>
       </c>
       <c r="H38" t="s">
-        <v>382</v>
+        <v>145</v>
       </c>
       <c r="I38" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -6715,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -6738,19 +7030,19 @@
     </row>
     <row r="39" spans="5:20">
       <c r="E39" t="s">
-        <v>385</v>
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>385</v>
+        <v>146</v>
       </c>
       <c r="G39" t="s">
-        <v>386</v>
+        <v>147</v>
       </c>
       <c r="H39" t="s">
-        <v>386</v>
+        <v>147</v>
       </c>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -6765,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -6788,19 +7080,19 @@
     </row>
     <row r="40" spans="5:20">
       <c r="E40" t="s">
-        <v>390</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
-        <v>389</v>
+        <v>148</v>
       </c>
       <c r="G40" t="s">
-        <v>391</v>
+        <v>149</v>
       </c>
       <c r="H40" t="s">
-        <v>391</v>
+        <v>149</v>
       </c>
       <c r="I40" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -6815,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -6837,1406 +7129,1408 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D8:N19">
-    <sortCondition descending="1" ref="N8"/>
+  <sortState ref="D8:N19">
+    <sortCondition ref="N8" descending="1"/>
   </sortState>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.9083333333333" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" customWidth="1"/>
-    <col min="8" max="8" width="30.90625" customWidth="1"/>
-    <col min="9" max="9" width="28.6328125" customWidth="1"/>
-    <col min="10" max="10" width="101.36328125" customWidth="1"/>
+    <col min="6" max="6" width="19.3666666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.9083333333333" customWidth="1"/>
+    <col min="8" max="8" width="30.9083333333333" customWidth="1"/>
+    <col min="9" max="9" width="28.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="101.366666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14">
       <c r="E8" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="4:14">
+        <v>159</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="5:10">
       <c r="E9" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10">
       <c r="E10" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10">
       <c r="E11" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="4:14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10">
       <c r="E12" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="4:14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10">
       <c r="E13" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10">
       <c r="E14" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14" ht="17.100000000000001" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" ht="17.1" customHeight="1" spans="5:10">
       <c r="E15" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14">
+        <v>180</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10">
       <c r="E16" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" ht="31.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" ht="31.5" spans="5:10">
       <c r="E20" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>147</v>
+        <v>192</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="I24" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" ht="31.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" ht="31.5" spans="5:10">
       <c r="E25" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>227</v>
+        <v>210</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="F33" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="I33" t="s">
-        <v>256</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>258</v>
+        <v>192</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="F34" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="I34" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="J34" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="F35" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="I35" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="J35" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" t="s">
+        <v>242</v>
+      </c>
+      <c r="J36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" ht="236.25" spans="5:10">
+      <c r="E37" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" t="s">
+        <v>246</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" ht="236.25" spans="5:10">
+      <c r="E38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" ht="236.25" spans="5:10">
+      <c r="E39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" t="s">
+        <v>245</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" t="s">
+        <v>252</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" ht="173.25" spans="5:10">
+      <c r="E40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" ht="299.25" spans="5:10">
+      <c r="E41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>258</v>
+      </c>
+      <c r="I41" t="s">
+        <v>259</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" ht="220.5" spans="5:10">
+      <c r="E42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" t="s">
+        <v>262</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" ht="267.75" spans="5:10">
+      <c r="E43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" t="s">
+        <v>265</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" ht="204.75" spans="5:10">
+      <c r="E44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s">
+        <v>268</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" ht="204.75" spans="5:10">
+      <c r="E45" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s">
+        <v>271</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" ht="299.25" spans="5:10">
+      <c r="E46" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
         <v>274</v>
       </c>
-      <c r="F36" t="s">
-        <v>216</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>266</v>
-      </c>
-      <c r="I36" t="s">
-        <v>262</v>
-      </c>
-      <c r="J36" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10" ht="234">
-      <c r="E37" t="s">
+      <c r="I46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" ht="252" spans="5:10">
+      <c r="E47" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" ht="252" spans="5:10">
+      <c r="E48" t="s">
+        <v>280</v>
+      </c>
+      <c r="F48" t="s">
+        <v>245</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" t="s">
         <v>281</v>
       </c>
-      <c r="F37" t="s">
+      <c r="J48" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>280</v>
-      </c>
-      <c r="I37" t="s">
+    </row>
+    <row r="49" ht="252" spans="5:10">
+      <c r="E49" t="s">
         <v>283</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="F49" t="s">
+        <v>245</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" t="s">
+        <v>284</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" ht="267.75" spans="5:10">
+      <c r="E50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" t="s">
+        <v>245</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>201</v>
+      </c>
+      <c r="I50" t="s">
+        <v>286</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" ht="252" spans="5:10">
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" t="s">
+        <v>245</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" t="s">
+        <v>288</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" ht="267.75" spans="5:10">
+      <c r="E52" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>290</v>
+      </c>
+      <c r="I52" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="38" spans="5:10" ht="234">
-      <c r="E38" t="s">
-        <v>403</v>
-      </c>
-      <c r="F38" t="s">
-        <v>282</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>249</v>
-      </c>
-      <c r="I38" t="s">
-        <v>284</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="5:10" ht="234">
-      <c r="E39" t="s">
-        <v>404</v>
-      </c>
-      <c r="F39" t="s">
-        <v>282</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>285</v>
-      </c>
-      <c r="I39" t="s">
-        <v>286</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="5:10" ht="171.6">
-      <c r="E40" t="s">
-        <v>405</v>
-      </c>
-      <c r="F40" t="s">
-        <v>282</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>255</v>
-      </c>
-      <c r="I40" t="s">
-        <v>287</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="5:10" ht="296.39999999999998">
-      <c r="E41" t="s">
-        <v>443</v>
-      </c>
-      <c r="F41" t="s">
-        <v>282</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>444</v>
-      </c>
-      <c r="I41" t="s">
-        <v>446</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="42" spans="5:10" ht="218.4">
-      <c r="E42" t="s">
-        <v>406</v>
-      </c>
-      <c r="F42" t="s">
-        <v>282</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="J52" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" ht="252" spans="5:10">
+      <c r="E53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F53" t="s">
+        <v>245</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" t="s">
+        <v>294</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" ht="252" spans="5:10">
+      <c r="E54" t="s">
+        <v>296</v>
+      </c>
+      <c r="F54" t="s">
+        <v>245</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="I42" t="s">
-        <v>296</v>
-      </c>
-      <c r="J42" s="4" t="s">
+    </row>
+    <row r="55" ht="252" spans="5:10">
+      <c r="E55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F55" t="s">
+        <v>245</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="43" spans="5:10" ht="265.2">
-      <c r="E43" t="s">
-        <v>407</v>
-      </c>
-      <c r="F43" t="s">
-        <v>282</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="J55" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" ht="252" spans="5:10">
+      <c r="E56" t="s">
         <v>301</v>
       </c>
-      <c r="I43" t="s">
+      <c r="F56" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>124</v>
+      </c>
+      <c r="I56" t="s">
+        <v>302</v>
+      </c>
+      <c r="J56" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J43" s="4" t="s">
+    </row>
+    <row r="57" ht="267.75" spans="5:10">
+      <c r="E57" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="44" spans="5:10" ht="202.8">
-      <c r="E44" t="s">
-        <v>408</v>
-      </c>
-      <c r="F44" t="s">
-        <v>282</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>233</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="F57" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" t="s">
         <v>305</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J57" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" ht="362.25" spans="5:10">
+      <c r="E58" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="45" spans="5:10" ht="202.8">
-      <c r="E45" t="s">
-        <v>409</v>
-      </c>
-      <c r="F45" t="s">
-        <v>282</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>238</v>
-      </c>
-      <c r="I45" t="s">
-        <v>306</v>
-      </c>
-      <c r="J45" s="4" t="s">
+      <c r="F58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>128</v>
+      </c>
+      <c r="I58" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="46" spans="5:10" ht="296.39999999999998">
-      <c r="E46" t="s">
-        <v>410</v>
-      </c>
-      <c r="F46" t="s">
-        <v>282</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="J58" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="I46" t="s">
+    </row>
+    <row r="59" ht="236.25" spans="5:10">
+      <c r="E59" t="s">
         <v>310</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="F59" t="s">
+        <v>245</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>130</v>
+      </c>
+      <c r="I59" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="47" spans="5:10" ht="249.6">
-      <c r="E47" t="s">
-        <v>411</v>
-      </c>
-      <c r="F47" t="s">
-        <v>282</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>294</v>
-      </c>
-      <c r="I47" t="s">
-        <v>293</v>
-      </c>
-      <c r="J47" s="4" t="s">
+      <c r="J59" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="5:10" ht="249.6">
-      <c r="E48" t="s">
-        <v>412</v>
-      </c>
-      <c r="F48" t="s">
-        <v>282</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
+    <row r="60" ht="236.25" spans="5:10">
+      <c r="E60" t="s">
         <v>313</v>
       </c>
-      <c r="I48" t="s">
+      <c r="F60" t="s">
+        <v>245</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>133</v>
+      </c>
+      <c r="I60" t="s">
+        <v>314</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" ht="236.25" spans="5:10">
+      <c r="E61" t="s">
         <v>316</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="F61" t="s">
+        <v>245</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" t="s">
+        <v>317</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="5:10" ht="249.6">
-      <c r="E49" t="s">
-        <v>413</v>
-      </c>
-      <c r="F49" t="s">
-        <v>282</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>224</v>
-      </c>
-      <c r="I49" t="s">
-        <v>317</v>
-      </c>
-      <c r="J49" s="4" t="s">
+    <row r="62" ht="252" spans="5:10">
+      <c r="E62" t="s">
+        <v>319</v>
+      </c>
+      <c r="F62" t="s">
+        <v>245</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>137</v>
+      </c>
+      <c r="I62" t="s">
+        <v>138</v>
+      </c>
+      <c r="J62" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="5:10" ht="265.2">
-      <c r="E50" t="s">
-        <v>220</v>
-      </c>
-      <c r="F50" t="s">
-        <v>282</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>219</v>
-      </c>
-      <c r="I50" t="s">
-        <v>317</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10" ht="249.6">
-      <c r="E51" t="s">
+    <row r="63" ht="252" spans="5:10">
+      <c r="E63" t="s">
+        <v>321</v>
+      </c>
+      <c r="F63" t="s">
+        <v>245</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" t="s">
+        <v>322</v>
+      </c>
+      <c r="J63" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F51" t="s">
-        <v>282</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>323</v>
-      </c>
-      <c r="I51" t="s">
-        <v>322</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10" ht="265.2">
-      <c r="E52" t="s">
+    </row>
+    <row r="64" ht="252" spans="5:10">
+      <c r="E64" t="s">
         <v>324</v>
       </c>
-      <c r="F52" t="s">
-        <v>282</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>324</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="F64" t="s">
+        <v>245</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
         <v>325</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="I64" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="53" spans="5:10" ht="249.6">
-      <c r="E53" t="s">
-        <v>414</v>
-      </c>
-      <c r="F53" t="s">
-        <v>282</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="J64" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="I53" t="s">
+    </row>
+    <row r="65" ht="252" spans="5:10">
+      <c r="E65" t="s">
+        <v>328</v>
+      </c>
+      <c r="F65" t="s">
+        <v>245</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>141</v>
+      </c>
+      <c r="I65" t="s">
+        <v>142</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" ht="267.75" spans="5:10">
+      <c r="E66" t="s">
         <v>330</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="54" spans="5:10" ht="249.6">
-      <c r="E54" t="s">
-        <v>415</v>
-      </c>
-      <c r="F54" t="s">
-        <v>282</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="F66" t="s">
+        <v>245</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>330</v>
+      </c>
+      <c r="I66" t="s">
         <v>331</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J66" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="J54" s="4" t="s">
+    </row>
+    <row r="67" ht="283.5" spans="5:10">
+      <c r="E67" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="55" spans="5:10" ht="249.6">
-      <c r="E55" t="s">
-        <v>416</v>
-      </c>
-      <c r="F55" t="s">
-        <v>282</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="F67" t="s">
+        <v>245</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>144</v>
+      </c>
+      <c r="I67" t="s">
         <v>334</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J67" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" ht="283.5" spans="5:10">
+      <c r="E68" t="s">
         <v>336</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="F68" t="s">
+        <v>245</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>146</v>
+      </c>
+      <c r="I68" t="s">
+        <v>147</v>
+      </c>
+      <c r="J68" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="5:10" ht="249.6">
-      <c r="E56" t="s">
-        <v>417</v>
-      </c>
-      <c r="F56" t="s">
-        <v>282</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
+    <row r="69" ht="283.5" spans="5:10">
+      <c r="E69" t="s">
         <v>338</v>
       </c>
-      <c r="I56" t="s">
+      <c r="F69" t="s">
+        <v>245</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>148</v>
+      </c>
+      <c r="I69" t="s">
+        <v>149</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" ht="252" spans="5:10">
+      <c r="E70" t="s">
+        <v>340</v>
+      </c>
+      <c r="F70" t="s">
+        <v>245</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>221</v>
+      </c>
+      <c r="I70" t="s">
         <v>341</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="57" spans="5:10" ht="265.2">
-      <c r="E57" t="s">
-        <v>418</v>
-      </c>
-      <c r="F57" t="s">
-        <v>282</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="J70" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="I57" t="s">
+    </row>
+    <row r="71" ht="252" spans="5:10">
+      <c r="E71" t="s">
+        <v>343</v>
+      </c>
+      <c r="F71" t="s">
+        <v>245</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>217</v>
+      </c>
+      <c r="I71" t="s">
         <v>344</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J71" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="5:10" ht="358.8">
-      <c r="E58" t="s">
-        <v>419</v>
-      </c>
-      <c r="F58" t="s">
-        <v>282</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
+    <row r="72" ht="283.5" spans="5:10">
+      <c r="E72" t="s">
         <v>346</v>
       </c>
-      <c r="I58" t="s">
+      <c r="F72" t="s">
+        <v>245</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>347</v>
+      </c>
+      <c r="I72" t="s">
         <v>348</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J72" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="5:10" ht="234">
-      <c r="E59" t="s">
-        <v>420</v>
-      </c>
-      <c r="F59" t="s">
-        <v>282</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
+    <row r="73" ht="283.5" spans="5:10">
+      <c r="E73" t="s">
         <v>350</v>
       </c>
-      <c r="I59" t="s">
+      <c r="F73" t="s">
+        <v>245</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>351</v>
+      </c>
+      <c r="I73" t="s">
         <v>352</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J73" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="60" spans="5:10" ht="234">
-      <c r="E60" t="s">
-        <v>421</v>
-      </c>
-      <c r="F60" t="s">
-        <v>282</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>357</v>
-      </c>
-      <c r="I60" t="s">
-        <v>356</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="61" spans="5:10" ht="234">
-      <c r="E61" t="s">
-        <v>422</v>
-      </c>
-      <c r="F61" t="s">
-        <v>282</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>359</v>
-      </c>
-      <c r="I61" t="s">
-        <v>361</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="62" spans="5:10" ht="249.6">
-      <c r="E62" t="s">
-        <v>423</v>
-      </c>
-      <c r="F62" t="s">
-        <v>282</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>363</v>
-      </c>
-      <c r="I62" t="s">
-        <v>364</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="63" spans="5:10" ht="249.6">
-      <c r="E63" t="s">
-        <v>424</v>
-      </c>
-      <c r="F63" t="s">
-        <v>282</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>367</v>
-      </c>
-      <c r="I63" t="s">
-        <v>368</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="64" spans="5:10" ht="249.6">
-      <c r="E64" t="s">
-        <v>425</v>
-      </c>
-      <c r="F64" t="s">
-        <v>282</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>370</v>
-      </c>
-      <c r="I64" t="s">
-        <v>371</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="65" spans="5:10" ht="249.6">
-      <c r="E65" t="s">
-        <v>426</v>
-      </c>
-      <c r="F65" t="s">
-        <v>282</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>372</v>
-      </c>
-      <c r="I65" t="s">
-        <v>376</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="66" spans="5:10" ht="265.2">
-      <c r="E66" t="s">
-        <v>377</v>
-      </c>
-      <c r="F66" t="s">
-        <v>282</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>377</v>
-      </c>
-      <c r="I66" t="s">
-        <v>378</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="67" spans="5:10" ht="280.8">
-      <c r="E67" t="s">
-        <v>427</v>
-      </c>
-      <c r="F67" t="s">
-        <v>282</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>380</v>
-      </c>
-      <c r="I67" t="s">
-        <v>383</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="5:10" ht="280.8">
-      <c r="E68" t="s">
-        <v>428</v>
-      </c>
-      <c r="F68" t="s">
-        <v>282</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>385</v>
-      </c>
-      <c r="I68" t="s">
-        <v>386</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="69" spans="5:10" ht="280.8">
-      <c r="E69" t="s">
-        <v>429</v>
-      </c>
-      <c r="F69" t="s">
-        <v>282</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>390</v>
-      </c>
-      <c r="I69" t="s">
-        <v>391</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="70" spans="5:10" ht="249.6">
-      <c r="E70" t="s">
-        <v>430</v>
-      </c>
-      <c r="F70" t="s">
-        <v>282</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>246</v>
-      </c>
-      <c r="I70" t="s">
-        <v>393</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="71" spans="5:10" ht="249.6">
-      <c r="E71" t="s">
-        <v>431</v>
-      </c>
-      <c r="F71" t="s">
-        <v>282</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>394</v>
-      </c>
-      <c r="I71" t="s">
-        <v>395</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="72" spans="5:10" ht="280.8">
-      <c r="E72" t="s">
-        <v>432</v>
-      </c>
-      <c r="F72" t="s">
-        <v>282</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>397</v>
-      </c>
-      <c r="I72" t="s">
-        <v>399</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="73" spans="5:10" ht="280.8">
-      <c r="E73" t="s">
-        <v>433</v>
-      </c>
-      <c r="F73" t="s">
-        <v>282</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>398</v>
-      </c>
-      <c r="I73" t="s">
-        <v>400</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H22"/>
   <sheetViews>
     <sheetView topLeftCell="E5" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="32.36328125" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" customWidth="1"/>
-    <col min="6" max="6" width="26.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="32.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="25.2666666666667" customWidth="1"/>
+    <col min="6" max="6" width="26.45" customWidth="1"/>
+    <col min="7" max="7" width="18.45" customWidth="1"/>
     <col min="8" max="8" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>153</v>
+        <v>354</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -8251,585 +8545,587 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>356</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>359</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8">
       <c r="E11" t="s">
-        <v>160</v>
+        <v>361</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>361</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>362</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8">
       <c r="E12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>364</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8">
       <c r="E13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="H13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8">
       <c r="E14" t="s">
-        <v>167</v>
+        <v>368</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>368</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8">
       <c r="E15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>371</v>
       </c>
       <c r="H15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8">
       <c r="E16" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>373</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>376</v>
       </c>
       <c r="H17" t="s">
-        <v>177</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>178</v>
+        <v>378</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>378</v>
       </c>
       <c r="G18" t="s">
-        <v>179</v>
+        <v>379</v>
       </c>
       <c r="H18" t="s">
-        <v>180</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>181</v>
+        <v>381</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>384</v>
       </c>
       <c r="H20" t="s">
-        <v>185</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="5:8">
       <c r="E21" t="s">
-        <v>435</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>435</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="H21" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="H22" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:M13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="25.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="25.6333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.6333333333333" style="3" customWidth="1"/>
+    <col min="6" max="8" width="18" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.3666666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.725" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.6333333333333" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.2666666666667" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.3666666666667" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:13">
-      <c r="D7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="F7" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>193</v>
+      <c r="J7" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="2"/>
-      <c r="E8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:13">
-      <c r="E9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13">
-      <c r="E10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13">
-      <c r="E11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:13">
-      <c r="E12" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:13">
-      <c r="E13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13">
+      <c r="E9" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
+      <c r="E10" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
+      <c r="E11" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
+      <c r="E12" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13">
+      <c r="E13" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE81157-F4D0-4509-98E1-B49876CCC686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="27.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="50.26953125" style="32" customWidth="1"/>
-    <col min="9" max="10" width="23.36328125" customWidth="1"/>
+    <col min="4" max="4" width="27.45" customWidth="1"/>
+    <col min="6" max="6" width="16.45" customWidth="1"/>
+    <col min="8" max="8" width="50.2666666666667" style="1" customWidth="1"/>
+    <col min="9" max="10" width="23.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>208</v>
+        <v>411</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>412</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>413</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
+        <v>414</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>213</v>
+        <v>400</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="32" t="str">
+      <c r="H8" s="1" t="str">
         <f>NOTIFY_MESSAGE_SETTING!E8</f>
         <v>default-instance</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>214</v>
+        <v>402</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="32" t="str">
+      <c r="H9" s="1" t="str">
         <f>NOTIFY_MESSAGE_SETTING!E9</f>
         <v>default-ingress</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>214</v>
+        <v>410</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="32" t="str">
+      <c r="H10" s="1" t="str">
         <f>NOTIFY_MESSAGE_SETTING!E13</f>
         <v>default-service</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="5:8">
       <c r="E11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>214</v>
+        <v>404</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="32" t="str">
+      <c r="H11" s="1" t="str">
         <f>NOTIFY_MESSAGE_SETTING!E10</f>
         <v>default-configMap</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="5:8">
       <c r="E12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>214</v>
+        <v>408</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="32" t="str">
+      <c r="H12" s="1" t="str">
         <f>NOTIFY_MESSAGE_SETTING!E12</f>
         <v>default-secret</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="5:8">
       <c r="E13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>213</v>
+        <v>406</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="32" t="str">
+      <c r="H13" s="1" t="str">
         <f>NOTIFY_MESSAGE_SETTING!E11</f>
         <v>default-certificate</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7740" tabRatio="452" activeTab="2"/>
+    <workbookView windowHeight="14400" tabRatio="452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
   <si>
     <r>
       <rPr>
@@ -3614,6 +3614,83 @@
 }</t>
   </si>
   <si>
+    <t>issueCreate-webHookJson</t>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"issueCreate",
+    "eventName":"Choerodon敏捷通知-问题创建",
+    "objectAttributes":{
+        "assigneeName":"assigneeName",
+        "summary":"summary",
+        "url":“url”,
+        "projectName":"projectName"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+  </si>
+  <si>
+    <t>issueAssignee-webHookJson</t>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"issueAssignee",
+    "eventName":"Choerodon敏捷通知-问题分配",
+    "objectAttributes":{
+        "assigneeName":"assigneeName",
+        "summary":"summary",
+        "url":“url”,
+        "projectName":"projectName"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+  </si>
+  <si>
+    <t>issueSolve-webHookJson</t>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"issueSolve",
+    "eventName":"Choerodon敏捷通知-问题已解决",
+    "objectAttributes":{
+        "assigneeName":"assigneeName",
+        "summary":"summary",
+        "url":“url”,
+        "projectName":"projectName"
+    },
+    "user":{
+        "loginName":"admin",
+        "userName":"admin"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+  </si>
+  <si>
+    <t>pi-complete-webHookJson</t>
+  </si>
+  <si>
+    <t>webhookjson</t>
+  </si>
+  <si>
+    <t>{
+    "objectKind":"pi-complete",
+    "eventName":"PI已完成",
+    "objectAttributes":{
+        "programName":“programName”,
+        "piName":"piName"
+    },
+    "createdAt":"2020-03-12 06:13:50 UTC"
+}</t>
+  </si>
+  <si>
     <t>NOTIFY_SEND_SETTING_CATEGORY</t>
   </si>
   <si>
@@ -3811,10 +3888,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3843,6 +3920,19 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -3852,19 +3942,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3887,7 +3964,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3900,11 +4015,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3915,10 +4037,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3930,14 +4069,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3959,81 +4107,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4112,13 +4189,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4130,13 +4219,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4148,7 +4273,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4160,25 +4309,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4196,103 +4351,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4309,12 +4386,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -4339,6 +4432,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -4350,26 +4456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -4377,15 +4463,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -4402,8 +4479,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4411,8 +4488,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4447,26 +4533,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4482,16 +4559,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4501,148 +4578,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4678,140 +4755,140 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -5146,7 +5223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -5154,7 +5231,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="7"/>
     <col min="3" max="3" width="100.633333333333" customWidth="1"/>
@@ -5168,46 +5245,46 @@
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="11"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" ht="48.9" customHeight="1" spans="1:7">
       <c r="A3"/>
-      <c r="C3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" ht="30" spans="1:7">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" ht="36" spans="1:7">
       <c r="A4"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="18" spans="1:4">
       <c r="A5" s="8"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
@@ -5215,91 +5292,91 @@
     <row r="6" spans="4:4">
       <c r="D6"/>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" ht="17.6" spans="3:5">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" ht="17.6" spans="3:5">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="161.25" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" ht="194" spans="3:6">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="191.25" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" ht="229" spans="3:5">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="44.25" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" ht="53" spans="3:5">
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="132.75" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="13" ht="17.6" spans="3:5">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" ht="17.6" spans="3:5">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" ht="159" spans="3:5">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5309,48 +5386,48 @@
     <row r="17" spans="4:4">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="18" t="s">
+    <row r="18" ht="17.6" spans="3:4">
+      <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+    <row r="19" ht="18" spans="3:5">
+      <c r="C19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5358,25 +5435,25 @@
       <c r="D24"/>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" ht="30" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" ht="36" spans="3:3">
+      <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5397,7 +5474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:T40"/>
   <sheetViews>
@@ -5405,7 +5482,7 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
   <cols>
     <col min="3" max="3" width="5.725" customWidth="1"/>
     <col min="4" max="4" width="16.0916666666667" customWidth="1"/>
@@ -7139,15 +7216,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:N73"/>
+  <dimension ref="D7:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.2"/>
   <cols>
     <col min="4" max="4" width="18.9083333333333" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
@@ -7423,7 +7500,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" ht="31.5" spans="5:10">
+    <row r="20" ht="27" spans="5:10">
       <c r="E20" t="s">
         <v>191</v>
       </c>
@@ -7523,7 +7600,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" ht="31.5" spans="5:10">
+    <row r="25" ht="27" spans="5:10">
       <c r="E25" t="s">
         <v>208</v>
       </c>
@@ -7683,7 +7760,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="5:10">
+    <row r="33" ht="14" spans="5:10">
       <c r="E33" t="s">
         <v>230</v>
       </c>
@@ -7763,7 +7840,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" ht="236.25" spans="5:10">
+    <row r="37" ht="198" spans="5:10">
       <c r="E37" t="s">
         <v>244</v>
       </c>
@@ -7783,7 +7860,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" ht="236.25" spans="5:10">
+    <row r="38" ht="198" spans="5:10">
       <c r="E38" t="s">
         <v>248</v>
       </c>
@@ -7803,7 +7880,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" ht="236.25" spans="5:10">
+    <row r="39" ht="198" spans="5:10">
       <c r="E39" t="s">
         <v>251</v>
       </c>
@@ -7823,7 +7900,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" ht="173.25" spans="5:10">
+    <row r="40" ht="146" spans="5:10">
       <c r="E40" t="s">
         <v>254</v>
       </c>
@@ -7843,7 +7920,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" ht="299.25" spans="5:10">
+    <row r="41" ht="251" spans="5:10">
       <c r="E41" t="s">
         <v>257</v>
       </c>
@@ -7863,7 +7940,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" ht="220.5" spans="5:10">
+    <row r="42" ht="185" spans="5:10">
       <c r="E42" t="s">
         <v>261</v>
       </c>
@@ -7883,7 +7960,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" ht="267.75" spans="5:10">
+    <row r="43" ht="225" spans="5:10">
       <c r="E43" t="s">
         <v>264</v>
       </c>
@@ -7903,7 +7980,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" ht="204.75" spans="5:10">
+    <row r="44" ht="172" spans="5:10">
       <c r="E44" t="s">
         <v>267</v>
       </c>
@@ -7923,7 +8000,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" ht="204.75" spans="5:10">
+    <row r="45" ht="172" spans="5:10">
       <c r="E45" t="s">
         <v>270</v>
       </c>
@@ -7943,7 +8020,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="46" ht="299.25" spans="5:10">
+    <row r="46" ht="251" spans="5:10">
       <c r="E46" t="s">
         <v>273</v>
       </c>
@@ -7963,7 +8040,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" ht="252" spans="5:10">
+    <row r="47" ht="212" spans="5:10">
       <c r="E47" t="s">
         <v>277</v>
       </c>
@@ -7983,7 +8060,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="48" ht="252" spans="5:10">
+    <row r="48" ht="212" spans="5:10">
       <c r="E48" t="s">
         <v>280</v>
       </c>
@@ -8003,7 +8080,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" ht="252" spans="5:10">
+    <row r="49" ht="212" spans="5:10">
       <c r="E49" t="s">
         <v>283</v>
       </c>
@@ -8023,7 +8100,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="50" ht="267.75" spans="5:10">
+    <row r="50" ht="225" spans="5:10">
       <c r="E50" t="s">
         <v>201</v>
       </c>
@@ -8043,7 +8120,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="51" ht="252" spans="5:10">
+    <row r="51" ht="212" spans="5:10">
       <c r="E51" t="s">
         <v>104</v>
       </c>
@@ -8063,7 +8140,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" ht="267.75" spans="5:10">
+    <row r="52" ht="225" spans="5:10">
       <c r="E52" t="s">
         <v>290</v>
       </c>
@@ -8083,7 +8160,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="53" ht="252" spans="5:10">
+    <row r="53" ht="212" spans="5:10">
       <c r="E53" t="s">
         <v>293</v>
       </c>
@@ -8103,7 +8180,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" ht="252" spans="5:10">
+    <row r="54" ht="212" spans="5:10">
       <c r="E54" t="s">
         <v>296</v>
       </c>
@@ -8123,7 +8200,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="55" ht="252" spans="5:10">
+    <row r="55" ht="212" spans="5:10">
       <c r="E55" t="s">
         <v>298</v>
       </c>
@@ -8143,7 +8220,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" ht="252" spans="5:10">
+    <row r="56" ht="212" spans="5:10">
       <c r="E56" t="s">
         <v>301</v>
       </c>
@@ -8163,7 +8240,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="57" ht="267.75" spans="5:10">
+    <row r="57" ht="225" spans="5:10">
       <c r="E57" t="s">
         <v>304</v>
       </c>
@@ -8183,7 +8260,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="58" ht="362.25" spans="5:10">
+    <row r="58" ht="304" spans="5:10">
       <c r="E58" t="s">
         <v>307</v>
       </c>
@@ -8203,7 +8280,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" ht="236.25" spans="5:10">
+    <row r="59" ht="198" spans="5:10">
       <c r="E59" t="s">
         <v>310</v>
       </c>
@@ -8223,7 +8300,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="60" ht="236.25" spans="5:10">
+    <row r="60" ht="198" spans="5:10">
       <c r="E60" t="s">
         <v>313</v>
       </c>
@@ -8243,7 +8320,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" ht="236.25" spans="5:10">
+    <row r="61" ht="198" spans="5:10">
       <c r="E61" t="s">
         <v>316</v>
       </c>
@@ -8263,7 +8340,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="62" ht="252" spans="5:10">
+    <row r="62" ht="212" spans="5:10">
       <c r="E62" t="s">
         <v>319</v>
       </c>
@@ -8283,7 +8360,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" ht="252" spans="5:10">
+    <row r="63" ht="212" spans="5:10">
       <c r="E63" t="s">
         <v>321</v>
       </c>
@@ -8303,7 +8380,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" ht="252" spans="5:10">
+    <row r="64" ht="212" spans="5:10">
       <c r="E64" t="s">
         <v>324</v>
       </c>
@@ -8323,7 +8400,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" ht="252" spans="5:10">
+    <row r="65" ht="212" spans="5:10">
       <c r="E65" t="s">
         <v>328</v>
       </c>
@@ -8343,7 +8420,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" ht="267.75" spans="5:10">
+    <row r="66" ht="225" spans="5:10">
       <c r="E66" t="s">
         <v>330</v>
       </c>
@@ -8363,7 +8440,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="67" ht="283.5" spans="5:10">
+    <row r="67" ht="238" spans="5:10">
       <c r="E67" t="s">
         <v>333</v>
       </c>
@@ -8383,7 +8460,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" ht="283.5" spans="5:10">
+    <row r="68" ht="238" spans="5:10">
       <c r="E68" t="s">
         <v>336</v>
       </c>
@@ -8403,7 +8480,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="69" ht="283.5" spans="5:10">
+    <row r="69" ht="238" spans="5:10">
       <c r="E69" t="s">
         <v>338</v>
       </c>
@@ -8423,7 +8500,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="70" ht="252" spans="5:10">
+    <row r="70" ht="212" spans="5:10">
       <c r="E70" t="s">
         <v>340</v>
       </c>
@@ -8443,7 +8520,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="71" ht="252" spans="5:10">
+    <row r="71" ht="212" spans="5:10">
       <c r="E71" t="s">
         <v>343</v>
       </c>
@@ -8463,7 +8540,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" ht="283.5" spans="5:10">
+    <row r="72" ht="238" spans="5:10">
       <c r="E72" t="s">
         <v>346</v>
       </c>
@@ -8483,7 +8560,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="73" ht="283.5" spans="5:10">
+    <row r="73" ht="238" spans="5:10">
       <c r="E73" t="s">
         <v>350</v>
       </c>
@@ -8501,6 +8578,86 @@
       </c>
       <c r="J73" s="6" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="74" ht="198" spans="5:10">
+      <c r="E74" t="s">
+        <v>354</v>
+      </c>
+      <c r="F74" t="s">
+        <v>245</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>233</v>
+      </c>
+      <c r="I74" t="s">
+        <v>234</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" ht="198" spans="5:10">
+      <c r="E75" t="s">
+        <v>356</v>
+      </c>
+      <c r="F75" t="s">
+        <v>245</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>237</v>
+      </c>
+      <c r="I75" t="s">
+        <v>238</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" ht="198" spans="5:10">
+      <c r="E76" t="s">
+        <v>358</v>
+      </c>
+      <c r="F76" t="s">
+        <v>245</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>241</v>
+      </c>
+      <c r="I76" t="s">
+        <v>242</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" ht="119" spans="5:10">
+      <c r="E77" t="s">
+        <v>360</v>
+      </c>
+      <c r="F77" t="s">
+        <v>361</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>209</v>
+      </c>
+      <c r="I77" t="s">
+        <v>210</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -8511,7 +8668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:H22"/>
   <sheetViews>
@@ -8519,7 +8676,7 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="32.3666666666667" customWidth="1"/>
     <col min="5" max="5" width="25.2666666666667" customWidth="1"/>
@@ -8530,7 +8687,7 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -8547,16 +8704,16 @@
     </row>
     <row r="8" spans="5:8">
       <c r="E8" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F8" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G8" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H8" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="5:8">
@@ -8570,7 +8727,7 @@
         <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="5:8">
@@ -8581,24 +8738,24 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H10" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="5:8">
       <c r="E11" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F11" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G11" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H11" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="5:8">
@@ -8609,10 +8766,10 @@
         <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="H12" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="5:8">
@@ -8623,24 +8780,24 @@
         <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H13" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="5:8">
       <c r="E14" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F14" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G14" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H14" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="5:8">
@@ -8651,10 +8808,10 @@
         <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H15" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="5:8">
@@ -8665,38 +8822,38 @@
         <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H16" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F17" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="H17" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F18" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="G18" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H18" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="5:8">
@@ -8707,24 +8864,24 @@
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H19" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="F20" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="G20" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H20" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="5:8">
@@ -8735,10 +8892,10 @@
         <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="H21" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="5:8">
@@ -8749,10 +8906,10 @@
         <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H22" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -8763,7 +8920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:M13"/>
   <sheetViews>
@@ -8771,7 +8928,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
     <col min="4" max="4" width="25.6333333333333" style="3" customWidth="1"/>
@@ -8787,43 +8944,43 @@
   <sheetData>
     <row r="7" spans="4:13">
       <c r="D7" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="4:13">
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -8835,7 +8992,7 @@
         <v>69</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -8849,10 +9006,10 @@
     </row>
     <row r="9" spans="5:13">
       <c r="E9" s="3" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -8864,7 +9021,7 @@
         <v>69</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -8878,10 +9035,10 @@
     </row>
     <row r="10" spans="5:13">
       <c r="E10" s="3" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -8893,7 +9050,7 @@
         <v>69</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -8907,10 +9064,10 @@
     </row>
     <row r="11" spans="5:13">
       <c r="E11" s="3" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -8922,7 +9079,7 @@
         <v>69</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -8936,10 +9093,10 @@
     </row>
     <row r="12" spans="5:13">
       <c r="E12" s="3" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -8951,7 +9108,7 @@
         <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -8965,10 +9122,10 @@
     </row>
     <row r="13" spans="5:13">
       <c r="E13" s="3" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -8980,7 +9137,7 @@
         <v>69</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -8993,14 +9150,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:H13"/>
   <sheetViews>
@@ -9008,7 +9165,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="27.45" customWidth="1"/>
     <col min="6" max="6" width="16.45" customWidth="1"/>
@@ -9018,27 +9175,27 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="E7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="G7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="8" spans="5:8">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="5:8">
       <c r="E8" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9048,12 +9205,12 @@
         <v>default-instance</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" ht="17.6" spans="5:8">
       <c r="E9" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -9063,12 +9220,12 @@
         <v>default-ingress</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" ht="17.6" spans="5:8">
       <c r="E10" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -9078,12 +9235,12 @@
         <v>default-service</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" ht="17.6" spans="5:8">
       <c r="E11" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -9093,12 +9250,12 @@
         <v>default-configMap</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" ht="17.6" spans="5:8">
       <c r="E12" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -9108,12 +9265,12 @@
         <v>default-secret</v>
       </c>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" ht="17.6" spans="5:8">
       <c r="E13" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -9124,7 +9281,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14400" tabRatio="452" activeTab="2"/>
+    <workbookView windowWidth="19890" windowHeight="7740" tabRatio="452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="427">
   <si>
     <r>
       <rPr>
@@ -2693,7 +2693,7 @@
     <t>Choerodon敏捷通知-问题创建</t>
   </si>
   <si>
-    <t>${assigneeName} (${assigneeLoginName})创建了问题${issueNumber}，${summary}</t>
+    <t>${assigneeName} 创建了问题 ${summary}</t>
   </si>
   <si>
     <t>issueAssignee-webHookOther</t>
@@ -2705,7 +2705,7 @@
     <t>Choerodon敏捷通知-问题分配</t>
   </si>
   <si>
-    <t>问题${issueNumbeer}，${summary}已被分配给 ${assigneeName} (${assigneeLoginName})。</t>
+    <t>${summary} 分配给 ${assigneeName}</t>
   </si>
   <si>
     <t>issueSolve-webHookOther</t>
@@ -2717,7 +2717,7 @@
     <t>Choerodon敏捷通知-问题已解决</t>
   </si>
   <si>
-    <t>问题${issueNumbeer}，${summary}已被 ${assigneeName} (${assigneeLoginName})解决。</t>
+    <t>${summary} 已经由 ${assigneeName} 解决</t>
   </si>
   <si>
     <t>createOrganization-webHookJson</t>
@@ -3888,10 +3888,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3920,6 +3920,19 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
       <charset val="134"/>
@@ -3929,19 +3942,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3964,7 +3964,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3972,6 +3987,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3986,14 +4016,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4008,30 +4066,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4046,38 +4083,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4092,25 +4107,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4189,31 +4189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4225,37 +4201,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4273,7 +4243,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4291,49 +4357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4345,31 +4369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4386,28 +4386,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -4432,12 +4416,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -4449,20 +4451,18 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -4479,8 +4479,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4496,9 +4496,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4518,17 +4544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4547,179 +4573,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4755,140 +4755,140 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -5223,7 +5223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -5231,7 +5231,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="7"/>
     <col min="3" max="3" width="100.633333333333" customWidth="1"/>
@@ -5245,46 +5245,46 @@
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="28"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" ht="48.9" customHeight="1" spans="1:7">
       <c r="A3"/>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" ht="36" spans="1:7">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="30" spans="1:7">
       <c r="A4"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" s="8"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
@@ -5292,91 +5292,91 @@
     <row r="6" spans="4:4">
       <c r="D6"/>
     </row>
-    <row r="7" ht="17.6" spans="3:5">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="17.6" spans="3:5">
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="34"/>
-    </row>
-    <row r="9" ht="194" spans="3:6">
-      <c r="C9" s="17" t="s">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" ht="161.25" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="229" spans="3:5">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="191.25" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="53" spans="3:5">
-      <c r="C12" s="15" t="s">
+    <row r="12" ht="44.25" spans="3:5">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="3:5">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="34"/>
-    </row>
-    <row r="14" ht="17.6" spans="3:5">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" ht="159" spans="3:5">
-      <c r="C15" s="20" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" ht="132.75" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5386,48 +5386,48 @@
     <row r="17" spans="4:4">
       <c r="D17"/>
     </row>
-    <row r="18" ht="17.6" spans="3:4">
-      <c r="C18" s="12" t="s">
+    <row r="18" spans="3:4">
+      <c r="C18" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" ht="18" spans="3:5">
-      <c r="C19" s="22" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="23" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="23" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="23" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="23" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5435,25 +5435,25 @@
       <c r="D24"/>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" spans="3:5">
-      <c r="C26" s="16" t="s">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" ht="36" spans="3:3">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="30" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:T40"/>
   <sheetViews>
@@ -5482,7 +5482,7 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="5.725" customWidth="1"/>
     <col min="4" max="4" width="16.0916666666667" customWidth="1"/>
@@ -7216,15 +7216,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="18.9083333333333" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
@@ -7500,7 +7500,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" ht="27" spans="5:10">
+    <row r="20" ht="31.5" spans="5:10">
       <c r="E20" t="s">
         <v>191</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="5:10">
+    <row r="25" ht="31.5" spans="5:10">
       <c r="E25" t="s">
         <v>208</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" ht="14" spans="5:10">
+    <row r="33" spans="5:10">
       <c r="E33" t="s">
         <v>230</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" ht="198" spans="5:10">
+    <row r="37" ht="236.25" spans="5:10">
       <c r="E37" t="s">
         <v>244</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" ht="198" spans="5:10">
+    <row r="38" ht="236.25" spans="5:10">
       <c r="E38" t="s">
         <v>248</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" ht="198" spans="5:10">
+    <row r="39" ht="236.25" spans="5:10">
       <c r="E39" t="s">
         <v>251</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" ht="146" spans="5:10">
+    <row r="40" ht="173.25" spans="5:10">
       <c r="E40" t="s">
         <v>254</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" ht="251" spans="5:10">
+    <row r="41" ht="299.25" spans="5:10">
       <c r="E41" t="s">
         <v>257</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" ht="185" spans="5:10">
+    <row r="42" ht="220.5" spans="5:10">
       <c r="E42" t="s">
         <v>261</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" ht="225" spans="5:10">
+    <row r="43" ht="267.75" spans="5:10">
       <c r="E43" t="s">
         <v>264</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" ht="172" spans="5:10">
+    <row r="44" ht="204.75" spans="5:10">
       <c r="E44" t="s">
         <v>267</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" ht="172" spans="5:10">
+    <row r="45" ht="204.75" spans="5:10">
       <c r="E45" t="s">
         <v>270</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="46" ht="251" spans="5:10">
+    <row r="46" ht="299.25" spans="5:10">
       <c r="E46" t="s">
         <v>273</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" ht="212" spans="5:10">
+    <row r="47" ht="252" spans="5:10">
       <c r="E47" t="s">
         <v>277</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="48" ht="212" spans="5:10">
+    <row r="48" ht="252" spans="5:10">
       <c r="E48" t="s">
         <v>280</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" ht="212" spans="5:10">
+    <row r="49" ht="252" spans="5:10">
       <c r="E49" t="s">
         <v>283</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="50" ht="225" spans="5:10">
+    <row r="50" ht="267.75" spans="5:10">
       <c r="E50" t="s">
         <v>201</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="51" ht="212" spans="5:10">
+    <row r="51" ht="252" spans="5:10">
       <c r="E51" t="s">
         <v>104</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" ht="225" spans="5:10">
+    <row r="52" ht="267.75" spans="5:10">
       <c r="E52" t="s">
         <v>290</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="53" ht="212" spans="5:10">
+    <row r="53" ht="252" spans="5:10">
       <c r="E53" t="s">
         <v>293</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" ht="212" spans="5:10">
+    <row r="54" ht="252" spans="5:10">
       <c r="E54" t="s">
         <v>296</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="55" ht="212" spans="5:10">
+    <row r="55" ht="252" spans="5:10">
       <c r="E55" t="s">
         <v>298</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" ht="212" spans="5:10">
+    <row r="56" ht="252" spans="5:10">
       <c r="E56" t="s">
         <v>301</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="57" ht="225" spans="5:10">
+    <row r="57" ht="267.75" spans="5:10">
       <c r="E57" t="s">
         <v>304</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="58" ht="304" spans="5:10">
+    <row r="58" ht="362.25" spans="5:10">
       <c r="E58" t="s">
         <v>307</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" ht="198" spans="5:10">
+    <row r="59" ht="236.25" spans="5:10">
       <c r="E59" t="s">
         <v>310</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="60" ht="198" spans="5:10">
+    <row r="60" ht="236.25" spans="5:10">
       <c r="E60" t="s">
         <v>313</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" ht="198" spans="5:10">
+    <row r="61" ht="236.25" spans="5:10">
       <c r="E61" t="s">
         <v>316</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="62" ht="212" spans="5:10">
+    <row r="62" ht="252" spans="5:10">
       <c r="E62" t="s">
         <v>319</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" ht="212" spans="5:10">
+    <row r="63" ht="252" spans="5:10">
       <c r="E63" t="s">
         <v>321</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" ht="212" spans="5:10">
+    <row r="64" ht="252" spans="5:10">
       <c r="E64" t="s">
         <v>324</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" ht="212" spans="5:10">
+    <row r="65" ht="252" spans="5:10">
       <c r="E65" t="s">
         <v>328</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" ht="225" spans="5:10">
+    <row r="66" ht="267.75" spans="5:10">
       <c r="E66" t="s">
         <v>330</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="67" ht="238" spans="5:10">
+    <row r="67" ht="283.5" spans="5:10">
       <c r="E67" t="s">
         <v>333</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" ht="238" spans="5:10">
+    <row r="68" ht="283.5" spans="5:10">
       <c r="E68" t="s">
         <v>336</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="69" ht="238" spans="5:10">
+    <row r="69" ht="283.5" spans="5:10">
       <c r="E69" t="s">
         <v>338</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="70" ht="212" spans="5:10">
+    <row r="70" ht="252" spans="5:10">
       <c r="E70" t="s">
         <v>340</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="71" ht="212" spans="5:10">
+    <row r="71" ht="252" spans="5:10">
       <c r="E71" t="s">
         <v>343</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" ht="238" spans="5:10">
+    <row r="72" ht="283.5" spans="5:10">
       <c r="E72" t="s">
         <v>346</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="73" ht="238" spans="5:10">
+    <row r="73" ht="283.5" spans="5:10">
       <c r="E73" t="s">
         <v>350</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="74" ht="198" spans="5:10">
+    <row r="74" ht="236.25" spans="5:10">
       <c r="E74" t="s">
         <v>354</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" ht="198" spans="5:10">
+    <row r="75" ht="236.25" spans="5:10">
       <c r="E75" t="s">
         <v>356</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="76" ht="198" spans="5:10">
+    <row r="76" ht="236.25" spans="5:10">
       <c r="E76" t="s">
         <v>358</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="77" ht="119" spans="5:10">
+    <row r="77" ht="141.75" spans="5:10">
       <c r="E77" t="s">
         <v>360</v>
       </c>
@@ -8668,7 +8668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:H22"/>
   <sheetViews>
@@ -8676,7 +8676,7 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="32.3666666666667" customWidth="1"/>
     <col min="5" max="5" width="25.2666666666667" customWidth="1"/>
@@ -8920,7 +8920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:M13"/>
   <sheetViews>
@@ -8928,7 +8928,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
     <col min="4" max="4" width="25.6333333333333" style="3" customWidth="1"/>
@@ -9157,7 +9157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:H13"/>
   <sheetViews>
@@ -9165,7 +9165,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="27.45" customWidth="1"/>
     <col min="6" max="6" width="16.45" customWidth="1"/>
@@ -9190,7 +9190,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" ht="17.6" spans="5:8">
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
         <v>409</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>default-instance</v>
       </c>
     </row>
-    <row r="9" ht="17.6" spans="5:8">
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
         <v>411</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>default-ingress</v>
       </c>
     </row>
-    <row r="10" ht="17.6" spans="5:8">
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
         <v>419</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>default-service</v>
       </c>
     </row>
-    <row r="11" ht="17.6" spans="5:8">
+    <row r="11" spans="5:8">
       <c r="E11" t="s">
         <v>413</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>default-configMap</v>
       </c>
     </row>
-    <row r="12" ht="17.6" spans="5:8">
+    <row r="12" spans="5:8">
       <c r="E12" t="s">
         <v>417</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>default-secret</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="5:8">
+    <row r="13" spans="5:8">
       <c r="E13" t="s">
         <v>415</v>
       </c>
